--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t>MONTH</t>
   </si>
@@ -344,6 +344,21 @@
   </si>
   <si>
     <t>Lorca vs Eibar</t>
+  </si>
+  <si>
+    <t>Internacional vs America MG</t>
+  </si>
+  <si>
+    <t>Corinthians vs Athletico PR</t>
+  </si>
+  <si>
+    <t>Atletico Go vs Novorizontino</t>
+  </si>
+  <si>
+    <t>Coritiba vs Gremio</t>
+  </si>
+  <si>
+    <t>Botafogo vs Palmeiras</t>
   </si>
 </sst>
 </file>
@@ -844,25 +859,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,24 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,13 +919,31 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,19 +964,16 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1371,11 +1386,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="212221688"/>
-        <c:axId val="212219336"/>
+        <c:axId val="216542336"/>
+        <c:axId val="216542720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212221688"/>
+        <c:axId val="216542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1433,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212219336"/>
+        <c:crossAx val="216542720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212219336"/>
+        <c:axId val="216542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1492,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212221688"/>
+        <c:crossAx val="216542336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,11 +1761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212220120"/>
-        <c:axId val="212220512"/>
+        <c:axId val="269866880"/>
+        <c:axId val="269867264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212220120"/>
+        <c:axId val="269866880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,12 +1818,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212220512"/>
+        <c:crossAx val="269867264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212220512"/>
+        <c:axId val="269867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1877,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212220120"/>
+        <c:crossAx val="269866880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2111,11 +2126,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="266663448"/>
-        <c:axId val="266665408"/>
+        <c:axId val="216571424"/>
+        <c:axId val="216571808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="266663448"/>
+        <c:axId val="216571424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2173,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266665408"/>
+        <c:crossAx val="216571808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266665408"/>
+        <c:axId val="216571808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2232,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266663448"/>
+        <c:crossAx val="216571424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2471,11 +2486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266665800"/>
-        <c:axId val="266664232"/>
+        <c:axId val="269819392"/>
+        <c:axId val="270450704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266665800"/>
+        <c:axId val="269819392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,12 +2543,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266664232"/>
+        <c:crossAx val="270450704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266664232"/>
+        <c:axId val="270450704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2602,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266665800"/>
+        <c:crossAx val="269819392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5859,9 +5874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6145,11 +6158,11 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-657</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.1899999999999999E-2</v>
       </c>
       <c r="D7" s="14">
         <v>45227</v>
@@ -6573,12 +6586,12 @@
         <f t="shared" si="5"/>
         <v>33036</v>
       </c>
-      <c r="N16" s="55" t="s">
+      <c r="N16" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -6623,14 +6636,14 @@
         <f t="shared" si="5"/>
         <v>33396</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -6674,16 +6687,16 @@
         <f t="shared" si="5"/>
         <v>33096</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <f>painel!B19</f>
         <v>30000</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="62">
+      <c r="O18" s="61"/>
+      <c r="P18" s="63">
         <f>N18+SUM(J:J)</f>
-        <v>32840</v>
-      </c>
-      <c r="Q18" s="48"/>
+        <v>32183</v>
+      </c>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -6727,10 +6740,10 @@
         <f t="shared" si="5"/>
         <v>32796</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="54"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -6775,12 +6788,12 @@
         <f t="shared" si="5"/>
         <v>32908.5</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -6825,13 +6838,13 @@
         <f t="shared" si="5"/>
         <v>33006</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <f>SUM(P18-N18)</f>
-        <v>2840</v>
-      </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+        <v>2183</v>
+      </c>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6876,10 +6889,10 @@
         <f t="shared" si="5"/>
         <v>33141</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -6923,10 +6936,10 @@
         <f t="shared" si="5"/>
         <v>32991</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -6971,12 +6984,12 @@
         <f t="shared" si="5"/>
         <v>33118.5</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -7020,12 +7033,12 @@
         <f t="shared" si="5"/>
         <v>33069.5</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -7070,13 +7083,13 @@
         <f t="shared" si="5"/>
         <v>33207.5</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="50">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>9.4666666666666663E-2</v>
-      </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+        <v>7.276666666666666E-2</v>
+      </c>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -7121,10 +7134,10 @@
         <f t="shared" si="5"/>
         <v>33270.5</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -7215,12 +7228,12 @@
         <f t="shared" si="5"/>
         <v>32970.5</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="35" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -7265,10 +7278,10 @@
         <f t="shared" si="5"/>
         <v>33038.75</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7319,10 +7332,10 @@
         <f t="shared" si="5"/>
         <v>33158.75</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7374,10 +7387,10 @@
         <f t="shared" si="5"/>
         <v>33222.5</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7429,10 +7442,10 @@
         <f t="shared" si="5"/>
         <v>33282.5</v>
       </c>
-      <c r="N33" s="31" t="s">
+      <c r="N33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="32"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7484,10 +7497,10 @@
         <f t="shared" si="5"/>
         <v>33560</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7538,10 +7551,10 @@
         <f t="shared" si="5"/>
         <v>33410</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="N35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7593,10 +7606,10 @@
         <f t="shared" si="5"/>
         <v>33530</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="35"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="25">
         <v>1</v>
       </c>
@@ -7647,10 +7660,10 @@
         <f>L36+J37</f>
         <v>32990</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="68"/>
       <c r="P37" s="25">
         <v>0.5</v>
       </c>
@@ -7701,10 +7714,10 @@
         <f t="shared" si="5"/>
         <v>32840</v>
       </c>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -7718,27 +7731,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D39" s="14">
+        <v>45231</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G39" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="20"/>
+        <v>840</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1.67</v>
+      </c>
       <c r="I39" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J39" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-840</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L39" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="39"/>
+        <v>32000</v>
+      </c>
+      <c r="N39" s="38"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -7752,27 +7778,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D40" s="14">
+        <v>45231</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G40" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1.9</v>
+      </c>
       <c r="I40" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-150</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="48"/>
+        <v>31850</v>
+      </c>
+      <c r="N40" s="41"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -7786,27 +7825,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D41" s="14">
+        <v>45231</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G41" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H41" s="20">
+        <v>1.92</v>
+      </c>
       <c r="I41" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="J41" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="L41" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="54"/>
+        <v>31988</v>
+      </c>
+      <c r="N41" s="47"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -7820,27 +7873,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D42" s="14">
+        <v>45231</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H42" s="20">
+        <v>1.82</v>
+      </c>
       <c r="I42" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L42" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="39"/>
+        <v>31988</v>
+      </c>
+      <c r="N42" s="38"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -7854,27 +7920,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D43" s="14">
+        <v>45231</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G43" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H43" s="20">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I43" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="J43" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="48"/>
+        <v>32183</v>
+      </c>
+      <c r="N43" s="41"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -7903,12 +7983,12 @@
       </c>
       <c r="L44" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="51"/>
+        <v>32183</v>
+      </c>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -7937,12 +8017,12 @@
       </c>
       <c r="L45" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="54"/>
+        <v>32183</v>
+      </c>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -7971,12 +8051,12 @@
       </c>
       <c r="L46" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
+        <v>32183</v>
+      </c>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -8005,12 +8085,12 @@
       </c>
       <c r="L47" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="39"/>
+        <v>32183</v>
+      </c>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -8039,12 +8119,12 @@
       </c>
       <c r="L48" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="42"/>
+        <v>32183</v>
+      </c>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -8073,12 +8153,12 @@
       </c>
       <c r="L49" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N49" s="43"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
+        <v>32183</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -8107,7 +8187,7 @@
       </c>
       <c r="L50" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -8141,12 +8221,12 @@
       </c>
       <c r="L51" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N51" s="33"/>
+        <v>32183</v>
+      </c>
+      <c r="N51" s="35"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="37"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -8175,10 +8255,10 @@
       </c>
       <c r="L52" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="34"/>
+        <v>32183</v>
+      </c>
+      <c r="N52" s="35"/>
+      <c r="O52" s="37"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -8209,10 +8289,10 @@
       </c>
       <c r="L53" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
+        <v>32183</v>
+      </c>
+      <c r="N53" s="30"/>
+      <c r="O53" s="31"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -8243,10 +8323,10 @@
       </c>
       <c r="L54" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
+        <v>32183</v>
+      </c>
+      <c r="N54" s="30"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -8277,10 +8357,10 @@
       </c>
       <c r="L55" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
+        <v>32183</v>
+      </c>
+      <c r="N55" s="30"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -8311,10 +8391,10 @@
       </c>
       <c r="L56" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N56" s="31"/>
-      <c r="O56" s="32"/>
+        <v>32183</v>
+      </c>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -8345,10 +8425,10 @@
       </c>
       <c r="L57" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
+        <v>32183</v>
+      </c>
+      <c r="N57" s="30"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8379,10 +8459,10 @@
       </c>
       <c r="L58" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="35"/>
+        <v>32183</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8413,10 +8493,10 @@
       </c>
       <c r="L59" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="68"/>
+        <v>32183</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -8447,7 +8527,7 @@
       </c>
       <c r="L60" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8477,7 +8557,7 @@
       </c>
       <c r="L61" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8507,7 +8587,7 @@
       </c>
       <c r="L62" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8537,7 +8617,7 @@
       </c>
       <c r="L63" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8567,7 +8647,7 @@
       </c>
       <c r="L64" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8597,7 +8677,7 @@
       </c>
       <c r="L65" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8627,7 +8707,7 @@
       </c>
       <c r="L66" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8657,7 +8737,7 @@
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L98" si="12">L66+J67</f>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8686,7 +8766,7 @@
       </c>
       <c r="L68" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8715,7 +8795,7 @@
       </c>
       <c r="L69" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8744,7 +8824,7 @@
       </c>
       <c r="L70" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8773,7 +8853,7 @@
       </c>
       <c r="L71" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -8802,7 +8882,7 @@
       </c>
       <c r="L72" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8831,7 +8911,7 @@
       </c>
       <c r="L73" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -8860,7 +8940,7 @@
       </c>
       <c r="L74" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -8889,7 +8969,7 @@
       </c>
       <c r="L75" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -8918,7 +8998,7 @@
       </c>
       <c r="L76" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -8947,7 +9027,7 @@
       </c>
       <c r="L77" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -8976,7 +9056,7 @@
       </c>
       <c r="L78" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -9005,7 +9085,7 @@
       </c>
       <c r="L79" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9034,7 +9114,7 @@
       </c>
       <c r="L80" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9063,7 +9143,7 @@
       </c>
       <c r="L81" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -9092,7 +9172,7 @@
       </c>
       <c r="L82" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9121,7 +9201,7 @@
       </c>
       <c r="L83" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9150,7 +9230,7 @@
       </c>
       <c r="L84" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9179,7 +9259,7 @@
       </c>
       <c r="L85" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9208,7 +9288,7 @@
       </c>
       <c r="L86" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9237,7 +9317,7 @@
       </c>
       <c r="L87" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9266,7 +9346,7 @@
       </c>
       <c r="L88" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -9295,7 +9375,7 @@
       </c>
       <c r="L89" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -9324,7 +9404,7 @@
       </c>
       <c r="L90" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -9353,7 +9433,7 @@
       </c>
       <c r="L91" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9382,7 +9462,7 @@
       </c>
       <c r="L92" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9411,7 +9491,7 @@
       </c>
       <c r="L93" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9440,7 +9520,7 @@
       </c>
       <c r="L94" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9469,7 +9549,7 @@
       </c>
       <c r="L95" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9498,7 +9578,7 @@
       </c>
       <c r="L96" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9527,7 +9607,7 @@
       </c>
       <c r="L97" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9556,11 +9636,40 @@
       </c>
       <c r="L98" s="18">
         <f t="shared" si="12"/>
-        <v>32840</v>
+        <v>32183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
@@ -9570,35 +9679,6 @@
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">

--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>MONTH</t>
   </si>
@@ -359,6 +359,27 @@
   </si>
   <si>
     <t>Botafogo vs Palmeiras</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA 2</t>
+  </si>
+  <si>
+    <t>eElversberg vs St. Pauli</t>
+  </si>
+  <si>
+    <t>Bologna vs Lazio</t>
+  </si>
+  <si>
+    <t>Pro sesto vs renate</t>
+  </si>
+  <si>
+    <t>Darmstad vs bochum</t>
+  </si>
+  <si>
+    <t>De Graafschap vs Breda</t>
+  </si>
+  <si>
+    <t>HOLANDA</t>
   </si>
 </sst>
 </file>
@@ -859,28 +880,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +908,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,31 +955,13 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,16 +982,19 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1266,6 +1287,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1386,11 +1408,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216542336"/>
-        <c:axId val="216542720"/>
+        <c:axId val="208455176"/>
+        <c:axId val="208455568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216542336"/>
+        <c:axId val="208455176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1455,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216542720"/>
+        <c:crossAx val="208455568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1441,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216542720"/>
+        <c:axId val="208455568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1514,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216542336"/>
+        <c:crossAx val="208455176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,6 +1609,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,11 +1784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269866880"/>
-        <c:axId val="269867264"/>
+        <c:axId val="208456744"/>
+        <c:axId val="208453608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269866880"/>
+        <c:axId val="208456744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1841,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269867264"/>
+        <c:crossAx val="208453608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269867264"/>
+        <c:axId val="208453608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1900,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269866880"/>
+        <c:crossAx val="208456744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1977,6 +2000,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2126,11 +2150,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216571424"/>
-        <c:axId val="216571808"/>
+        <c:axId val="262754824"/>
+        <c:axId val="262755216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216571424"/>
+        <c:axId val="262754824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216571808"/>
+        <c:crossAx val="262755216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2181,7 +2205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216571808"/>
+        <c:axId val="262755216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2256,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216571424"/>
+        <c:crossAx val="262754824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2327,6 +2351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2486,11 +2511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269819392"/>
-        <c:axId val="270450704"/>
+        <c:axId val="262750120"/>
+        <c:axId val="262756784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269819392"/>
+        <c:axId val="262750120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,12 +2568,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270450704"/>
+        <c:crossAx val="262756784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270450704"/>
+        <c:axId val="262756784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2627,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269819392"/>
+        <c:crossAx val="262750120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5475,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,11 +6271,11 @@
       </c>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D9" s="14">
         <v>45227</v>
@@ -6586,12 +6611,12 @@
         <f t="shared" si="5"/>
         <v>33036</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -6636,14 +6661,14 @@
         <f t="shared" si="5"/>
         <v>33396</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="58"/>
+      <c r="P17" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -6687,16 +6712,16 @@
         <f t="shared" si="5"/>
         <v>33096</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="46">
         <f>painel!B19</f>
         <v>30000</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="63">
+      <c r="O18" s="60"/>
+      <c r="P18" s="62">
         <f>N18+SUM(J:J)</f>
-        <v>32183</v>
-      </c>
-      <c r="Q18" s="43"/>
+        <v>32282</v>
+      </c>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -6740,10 +6765,10 @@
         <f t="shared" si="5"/>
         <v>32796</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="49"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -6788,12 +6813,12 @@
         <f t="shared" si="5"/>
         <v>32908.5</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -6838,13 +6863,13 @@
         <f t="shared" si="5"/>
         <v>33006</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="46">
         <f>SUM(P18-N18)</f>
-        <v>2183</v>
-      </c>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
+        <v>2282</v>
+      </c>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6889,10 +6914,10 @@
         <f t="shared" si="5"/>
         <v>33141</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -6936,10 +6961,10 @@
         <f t="shared" si="5"/>
         <v>32991</v>
       </c>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -6984,12 +7009,12 @@
         <f t="shared" si="5"/>
         <v>33118.5</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -7033,12 +7058,12 @@
         <f t="shared" si="5"/>
         <v>33069.5</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -7083,13 +7108,13 @@
         <f t="shared" si="5"/>
         <v>33207.5</v>
       </c>
-      <c r="N26" s="50">
+      <c r="N26" s="40">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>7.276666666666666E-2</v>
-      </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+        <v>7.6066666666666671E-2</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -7134,10 +7159,10 @@
         <f t="shared" si="5"/>
         <v>33270.5</v>
       </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -7228,12 +7253,12 @@
         <f t="shared" si="5"/>
         <v>32970.5</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="33" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -7278,10 +7303,10 @@
         <f t="shared" si="5"/>
         <v>33038.75</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="37"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7332,10 +7357,10 @@
         <f t="shared" si="5"/>
         <v>33158.75</v>
       </c>
-      <c r="N31" s="30" t="s">
+      <c r="N31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="31"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7387,10 +7412,10 @@
         <f t="shared" si="5"/>
         <v>33222.5</v>
       </c>
-      <c r="N32" s="30" t="s">
+      <c r="N32" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="31"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7442,10 +7467,10 @@
         <f t="shared" si="5"/>
         <v>33282.5</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7497,10 +7522,10 @@
         <f t="shared" si="5"/>
         <v>33560</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="31"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7551,10 +7576,10 @@
         <f t="shared" si="5"/>
         <v>33410</v>
       </c>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="31"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7606,10 +7631,10 @@
         <f t="shared" si="5"/>
         <v>33530</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="32"/>
+      <c r="O36" s="35"/>
       <c r="P36" s="25">
         <v>1</v>
       </c>
@@ -7660,10 +7685,10 @@
         <f>L36+J37</f>
         <v>32990</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="68"/>
+      <c r="O37" s="30"/>
       <c r="P37" s="25">
         <v>0.5</v>
       </c>
@@ -7714,10 +7739,10 @@
         <f t="shared" si="5"/>
         <v>32840</v>
       </c>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="66"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -7761,10 +7786,10 @@
         <f t="shared" si="5"/>
         <v>32000</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="40"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -7808,10 +7833,10 @@
         <f t="shared" si="5"/>
         <v>31850</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="43"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -7856,10 +7881,10 @@
         <f t="shared" si="5"/>
         <v>31988</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="49"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="54"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -7903,10 +7928,10 @@
         <f t="shared" si="5"/>
         <v>31988</v>
       </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="40"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -7951,10 +7976,10 @@
         <f t="shared" si="5"/>
         <v>32183</v>
       </c>
-      <c r="N43" s="41"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -7968,27 +7993,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D44" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G44" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H44" s="20">
+        <v>1.75</v>
+      </c>
       <c r="I44" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="J44" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>112.5</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L44" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="46"/>
+        <v>32295.5</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -8002,27 +8041,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D45" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G45" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H45" s="20">
+        <v>1.9</v>
+      </c>
       <c r="I45" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-150</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L45" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49"/>
+        <v>32145.5</v>
+      </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="54"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -8036,27 +8088,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D46" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G46" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H46" s="20">
+        <v>1.96</v>
+      </c>
       <c r="I46" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J46" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IFERROR(I46-G46, 0)</f>
+        <v>144</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L46" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="40"/>
+        <v>32289.5</v>
+      </c>
+      <c r="N46" s="37"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -8070,27 +8136,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D47" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G47" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H47" s="20">
+        <v>1.95</v>
+      </c>
       <c r="I47" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="J47" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>142.5</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L47" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="40"/>
+        <v>32432</v>
+      </c>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="39"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -8104,27 +8184,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D48" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H48" s="20">
+        <v>1.92</v>
+      </c>
       <c r="I48" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J48" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IFERROR(I48-G48, 0)</f>
+        <v>-150</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L48" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="52"/>
+        <v>32282</v>
+      </c>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -8148,17 +8241,17 @@
         <v>0</v>
       </c>
       <c r="J49" s="17">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I49-G49, 0)</f>
         <v>0</v>
       </c>
       <c r="L49" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="55"/>
+        <v>32282</v>
+      </c>
+      <c r="N49" s="43"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -8187,7 +8280,7 @@
       </c>
       <c r="L50" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -8221,12 +8314,12 @@
       </c>
       <c r="L51" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N51" s="35"/>
+        <v>32282</v>
+      </c>
+      <c r="N51" s="33"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-      <c r="Q51" s="37"/>
+      <c r="Q51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -8255,10 +8348,10 @@
       </c>
       <c r="L52" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="37"/>
+        <v>32282</v>
+      </c>
+      <c r="N52" s="33"/>
+      <c r="O52" s="34"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -8289,10 +8382,10 @@
       </c>
       <c r="L53" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="31"/>
+        <v>32282</v>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -8323,10 +8416,10 @@
       </c>
       <c r="L54" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N54" s="30"/>
-      <c r="O54" s="31"/>
+        <v>32282</v>
+      </c>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -8357,10 +8450,10 @@
       </c>
       <c r="L55" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="31"/>
+        <v>32282</v>
+      </c>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -8391,10 +8484,10 @@
       </c>
       <c r="L56" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="31"/>
+        <v>32282</v>
+      </c>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -8425,10 +8518,10 @@
       </c>
       <c r="L57" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="31"/>
+        <v>32282</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8459,10 +8552,10 @@
       </c>
       <c r="L58" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N58" s="30"/>
-      <c r="O58" s="32"/>
+        <v>32282</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="35"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8493,10 +8586,10 @@
       </c>
       <c r="L59" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N59" s="33"/>
-      <c r="O59" s="34"/>
+        <v>32282</v>
+      </c>
+      <c r="N59" s="67"/>
+      <c r="O59" s="68"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -8527,7 +8620,7 @@
       </c>
       <c r="L60" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8557,7 +8650,7 @@
       </c>
       <c r="L61" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8587,7 +8680,7 @@
       </c>
       <c r="L62" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8617,7 +8710,7 @@
       </c>
       <c r="L63" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8647,7 +8740,7 @@
       </c>
       <c r="L64" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8677,7 +8770,7 @@
       </c>
       <c r="L65" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8707,7 +8800,7 @@
       </c>
       <c r="L66" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8737,7 +8830,7 @@
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L98" si="12">L66+J67</f>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8766,7 +8859,7 @@
       </c>
       <c r="L68" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8795,7 +8888,7 @@
       </c>
       <c r="L69" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8824,7 +8917,7 @@
       </c>
       <c r="L70" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8853,7 +8946,7 @@
       </c>
       <c r="L71" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -8882,7 +8975,7 @@
       </c>
       <c r="L72" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8911,7 +9004,7 @@
       </c>
       <c r="L73" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -8940,7 +9033,7 @@
       </c>
       <c r="L74" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -8969,7 +9062,7 @@
       </c>
       <c r="L75" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -8998,7 +9091,7 @@
       </c>
       <c r="L76" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -9027,7 +9120,7 @@
       </c>
       <c r="L77" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -9056,7 +9149,7 @@
       </c>
       <c r="L78" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -9085,7 +9178,7 @@
       </c>
       <c r="L79" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9114,7 +9207,7 @@
       </c>
       <c r="L80" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9143,7 +9236,7 @@
       </c>
       <c r="L81" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -9172,7 +9265,7 @@
       </c>
       <c r="L82" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9201,7 +9294,7 @@
       </c>
       <c r="L83" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9230,7 +9323,7 @@
       </c>
       <c r="L84" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9259,7 +9352,7 @@
       </c>
       <c r="L85" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9288,7 +9381,7 @@
       </c>
       <c r="L86" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9317,7 +9410,7 @@
       </c>
       <c r="L87" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9346,7 +9439,7 @@
       </c>
       <c r="L88" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -9375,7 +9468,7 @@
       </c>
       <c r="L89" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -9404,7 +9497,7 @@
       </c>
       <c r="L90" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -9433,7 +9526,7 @@
       </c>
       <c r="L91" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9462,7 +9555,7 @@
       </c>
       <c r="L92" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9491,7 +9584,7 @@
       </c>
       <c r="L93" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9520,7 +9613,7 @@
       </c>
       <c r="L94" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9549,7 +9642,7 @@
       </c>
       <c r="L95" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9578,7 +9671,7 @@
       </c>
       <c r="L96" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9607,7 +9700,7 @@
       </c>
       <c r="L97" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9636,11 +9729,40 @@
       </c>
       <c r="L98" s="18">
         <f t="shared" si="12"/>
-        <v>32183</v>
+        <v>32282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N30:O30"/>
@@ -9650,35 +9772,6 @@
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">

--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
   <si>
     <t>MONTH</t>
   </si>
@@ -380,6 +380,84 @@
   </si>
   <si>
     <t>HOLANDA</t>
+  </si>
+  <si>
+    <t>Juventude vs Ituano</t>
+  </si>
+  <si>
+    <t>CELTA VIGO vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUDDERSFIELD vs WATFORD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST BROM vs HULL CITY </t>
+  </si>
+  <si>
+    <t>PRESTON vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>As Bari vs Ascoli</t>
+  </si>
+  <si>
+    <t>FC Koln vs Augusburg</t>
+  </si>
+  <si>
+    <t>Plymouth vs Middlesbrough</t>
+  </si>
+  <si>
+    <t>Monterosi vs Picerno</t>
+  </si>
+  <si>
+    <t>Osnabruck vs Holsteiin Kiel</t>
+  </si>
+  <si>
+    <t>Fulham vs Manchester United</t>
+  </si>
+  <si>
+    <t>Ossasuna vs Girona</t>
+  </si>
+  <si>
+    <t>Manchester city vs Bournemouth</t>
+  </si>
+  <si>
+    <t>millwall vs southampton</t>
+  </si>
+  <si>
+    <t>swansea city vs sunderland</t>
+  </si>
+  <si>
+    <t>Salernitana vs Napoli</t>
+  </si>
+  <si>
+    <t>Mainz vs Leipzip</t>
+  </si>
+  <si>
+    <t>Lorient vs Lens</t>
+  </si>
+  <si>
+    <t>Sampdoria vs Palermo</t>
+  </si>
+  <si>
+    <t>Atalanta vs Inter Milan</t>
+  </si>
+  <si>
+    <t>Avellino vs Francavilla</t>
+  </si>
+  <si>
+    <t>Real Valladolid vs Tenerife</t>
+  </si>
+  <si>
+    <t>Levante vs Mirandes</t>
+  </si>
+  <si>
+    <t>Foggia vs Sorrento Calcio</t>
+  </si>
+  <si>
+    <t>Albacete vs Elche</t>
+  </si>
+  <si>
+    <t>Real Sociedade vs Barcelona</t>
   </si>
 </sst>
 </file>
@@ -880,25 +958,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,24 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,13 +1018,31 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,19 +1063,16 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1287,7 +1365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,11 +1485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="208455176"/>
-        <c:axId val="208455568"/>
+        <c:axId val="214128976"/>
+        <c:axId val="214129760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208455176"/>
+        <c:axId val="214128976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1532,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208455568"/>
+        <c:crossAx val="214129760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208455568"/>
+        <c:axId val="214129760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1591,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208455176"/>
+        <c:crossAx val="214128976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +1686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1784,11 +1860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208456744"/>
-        <c:axId val="208453608"/>
+        <c:axId val="214131328"/>
+        <c:axId val="214131720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208456744"/>
+        <c:axId val="214131328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,12 +1917,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208453608"/>
+        <c:crossAx val="214131720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208453608"/>
+        <c:axId val="214131720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1976,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208456744"/>
+        <c:crossAx val="214131328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2000,7 +2076,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2150,11 +2225,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="262754824"/>
-        <c:axId val="262755216"/>
+        <c:axId val="269240384"/>
+        <c:axId val="269239208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262754824"/>
+        <c:axId val="269240384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2272,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262755216"/>
+        <c:crossAx val="269239208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,7 +2280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262755216"/>
+        <c:axId val="269239208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262754824"/>
+        <c:crossAx val="269240384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,7 +2426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2511,11 +2585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262750120"/>
-        <c:axId val="262756784"/>
+        <c:axId val="269239600"/>
+        <c:axId val="269236072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262750120"/>
+        <c:axId val="269239600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,12 +2642,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262756784"/>
+        <c:crossAx val="269236072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262756784"/>
+        <c:axId val="269236072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2701,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262750120"/>
+        <c:crossAx val="269239600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5899,7 +5973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6006,7 +6082,7 @@
         <v>45227</v>
       </c>
       <c r="B3" s="17">
-        <f t="shared" ref="B3:B66" si="0">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
+        <f t="shared" ref="B3:B9" si="0">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
         <v>2211</v>
       </c>
       <c r="C3" s="19">
@@ -6271,11 +6347,11 @@
       </c>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>164.25</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="1"/>
-        <v>3.3E-3</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="D9" s="14">
         <v>45227</v>
@@ -6314,12 +6390,12 @@
         <v>45234</v>
       </c>
       <c r="B10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIF(D$2:D$81,A10,J$2:J$81)</f>
+        <v>-624.90000000000009</v>
       </c>
       <c r="C10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>B10/L$1</f>
+        <v>-2.0830000000000005E-2</v>
       </c>
       <c r="D10" s="14">
         <v>45227</v>
@@ -6357,7 +6433,7 @@
         <v>45235</v>
       </c>
       <c r="B11" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF(D$2:D$98,A11,J$2:J$98)</f>
         <v>0</v>
       </c>
       <c r="C11" s="19">
@@ -6400,7 +6476,7 @@
         <v>45236</v>
       </c>
       <c r="B12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B12:B75" si="6">SUMIF(D$2:D$98,A12,J$2:J$98)</f>
         <v>0</v>
       </c>
       <c r="C12" s="19">
@@ -6443,7 +6519,7 @@
         <v>45237</v>
       </c>
       <c r="B13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C13" s="19">
@@ -6486,7 +6562,7 @@
         <v>45238</v>
       </c>
       <c r="B14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C14" s="19">
@@ -6530,7 +6606,7 @@
         <v>45239</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C15" s="19">
@@ -6574,7 +6650,7 @@
         <v>45240</v>
       </c>
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C16" s="19">
@@ -6611,19 +6687,19 @@
         <f t="shared" si="5"/>
         <v>33036</v>
       </c>
-      <c r="N16" s="55" t="s">
+      <c r="N16" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45241</v>
       </c>
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C17" s="19">
@@ -6661,21 +6737,21 @@
         <f t="shared" si="5"/>
         <v>33396</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45242</v>
       </c>
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C18" s="19">
@@ -6712,23 +6788,23 @@
         <f t="shared" si="5"/>
         <v>33096</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <f>painel!B19</f>
         <v>30000</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="62">
+      <c r="O18" s="61"/>
+      <c r="P18" s="63">
         <f>N18+SUM(J:J)</f>
-        <v>32282</v>
-      </c>
-      <c r="Q18" s="48"/>
+        <v>31722.35</v>
+      </c>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45243</v>
       </c>
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C19" s="19">
@@ -6765,17 +6841,17 @@
         <f t="shared" si="5"/>
         <v>32796</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="54"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45244</v>
       </c>
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C20" s="19">
@@ -6813,19 +6889,19 @@
         <f t="shared" si="5"/>
         <v>32908.5</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45245</v>
       </c>
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C21" s="19">
@@ -6863,20 +6939,20 @@
         <f t="shared" si="5"/>
         <v>33006</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <f>SUM(P18-N18)</f>
-        <v>2282</v>
-      </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+        <v>1722.3499999999985</v>
+      </c>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45246</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C22" s="19">
@@ -6914,17 +6990,17 @@
         <f t="shared" si="5"/>
         <v>33141</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45247</v>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C23" s="19">
@@ -6961,17 +7037,17 @@
         <f t="shared" si="5"/>
         <v>32991</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45248</v>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C24" s="19">
@@ -7009,19 +7085,19 @@
         <f t="shared" si="5"/>
         <v>33118.5</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45249</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C25" s="19">
@@ -7058,19 +7134,19 @@
         <f t="shared" si="5"/>
         <v>33069.5</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45250</v>
       </c>
       <c r="B26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C26" s="19">
@@ -7108,20 +7184,20 @@
         <f t="shared" si="5"/>
         <v>33207.5</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="50">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>7.6066666666666671E-2</v>
-      </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+        <v>5.7411666666666618E-2</v>
+      </c>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>45251</v>
       </c>
       <c r="B27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C27" s="19">
@@ -7159,17 +7235,17 @@
         <f t="shared" si="5"/>
         <v>33270.5</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45252</v>
       </c>
       <c r="B28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C28" s="19">
@@ -7216,7 +7292,7 @@
         <v>45253</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C29" s="19">
@@ -7253,19 +7329,19 @@
         <f t="shared" si="5"/>
         <v>32970.5</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="35" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45254</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C30" s="19">
@@ -7303,10 +7379,10 @@
         <f t="shared" si="5"/>
         <v>33038.75</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7319,7 +7395,7 @@
         <v>45255</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C31" s="19">
@@ -7357,15 +7433,15 @@
         <f t="shared" si="5"/>
         <v>33158.75</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" ref="Q31:Q37" si="6">P31*N$18/100</f>
+        <f t="shared" ref="Q31:Q37" si="7">P31*N$18/100</f>
         <v>1200</v>
       </c>
     </row>
@@ -7374,7 +7450,7 @@
         <v>45256</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C32" s="19">
@@ -7412,15 +7488,15 @@
         <f t="shared" si="5"/>
         <v>33222.5</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
       <c r="Q32" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
     </row>
@@ -7429,7 +7505,7 @@
         <v>45257</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C33" s="19">
@@ -7467,15 +7543,15 @@
         <f t="shared" si="5"/>
         <v>33282.5</v>
       </c>
-      <c r="N33" s="31" t="s">
+      <c r="N33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="32"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
       <c r="Q33" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
     </row>
@@ -7484,7 +7560,7 @@
         <v>45258</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C34" s="19">
@@ -7522,15 +7598,15 @@
         <f t="shared" si="5"/>
         <v>33560</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
       <c r="Q34" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
     </row>
@@ -7539,7 +7615,7 @@
         <v>45259</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C35" s="19">
@@ -7576,15 +7652,15 @@
         <f t="shared" si="5"/>
         <v>33410</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="N35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
       <c r="Q35" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
     </row>
@@ -7593,7 +7669,7 @@
         <v>45260</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C36" s="19">
@@ -7631,15 +7707,15 @@
         <f t="shared" si="5"/>
         <v>33530</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="35"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="25">
         <v>1</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
     </row>
@@ -7648,7 +7724,7 @@
         <v>45261</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C37" s="19">
@@ -7685,15 +7761,15 @@
         <f>L36+J37</f>
         <v>32990</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="68"/>
       <c r="P37" s="25">
         <v>0.5</v>
       </c>
       <c r="Q37" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
     </row>
@@ -7702,7 +7778,7 @@
         <v>45262</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C38" s="19">
@@ -7739,17 +7815,17 @@
         <f t="shared" si="5"/>
         <v>32840</v>
       </c>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>45263</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C39" s="19">
@@ -7786,17 +7862,17 @@
         <f t="shared" si="5"/>
         <v>32000</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="39"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>45264</v>
       </c>
       <c r="B40" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C40" s="19">
@@ -7833,17 +7909,17 @@
         <f t="shared" si="5"/>
         <v>31850</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="48"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>45265</v>
       </c>
       <c r="B41" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C41" s="19">
@@ -7881,17 +7957,17 @@
         <f t="shared" si="5"/>
         <v>31988</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="54"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>45266</v>
       </c>
       <c r="B42" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C42" s="19">
@@ -7928,17 +8004,17 @@
         <f t="shared" si="5"/>
         <v>31988</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="39"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>45267</v>
       </c>
       <c r="B43" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C43" s="19">
@@ -7976,17 +8052,17 @@
         <f t="shared" si="5"/>
         <v>32183</v>
       </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="48"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>45268</v>
       </c>
       <c r="B44" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C44" s="19">
@@ -8024,17 +8100,17 @@
         <f t="shared" si="5"/>
         <v>32295.5</v>
       </c>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="51"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>45269</v>
       </c>
       <c r="B45" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C45" s="19">
@@ -8071,17 +8147,17 @@
         <f t="shared" si="5"/>
         <v>32145.5</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="54"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45270</v>
       </c>
       <c r="B46" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C46" s="19">
@@ -8119,17 +8195,17 @@
         <f t="shared" si="5"/>
         <v>32289.5</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45271</v>
       </c>
       <c r="B47" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C47" s="19">
@@ -8167,17 +8243,17 @@
         <f t="shared" si="5"/>
         <v>32432</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="39"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>45272</v>
       </c>
       <c r="B48" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C48" s="19">
@@ -8214,73 +8290,100 @@
         <f t="shared" si="5"/>
         <v>32282</v>
       </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="42"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>45273</v>
       </c>
       <c r="B49" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C49" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D49" s="14">
+        <v>45233</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1.87</v>
+      </c>
       <c r="I49" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="J49" s="17">
-        <f>IFERROR(I49-G49, 0)</f>
-        <v>0</v>
+        <f>IFERROR((I49-G49)/2, 0)</f>
+        <v>65.25</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="L49" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N49" s="43"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
+        <v>32347.25</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>45274</v>
       </c>
       <c r="B50" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C50" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D50" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G50" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="20"/>
+        <v>540</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1.85</v>
+      </c>
       <c r="I50" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-540</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L50" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>31807.25</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -8292,66 +8395,93 @@
         <v>45275</v>
       </c>
       <c r="B51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C51" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D51" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G51" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="20"/>
+        <v>540</v>
+      </c>
+      <c r="H51" s="20">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="I51" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-540</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N51" s="33"/>
+        <v>31267.25</v>
+      </c>
+      <c r="N51" s="35"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="37"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>45276</v>
       </c>
       <c r="B52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C52" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D52" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G52" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="20"/>
+        <v>540</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1.99</v>
+      </c>
       <c r="I52" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1074.5999999999999</v>
       </c>
       <c r="J52" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>534.59999999999991</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L52" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="34"/>
+        <v>31801.85</v>
+      </c>
+      <c r="N52" s="35"/>
+      <c r="O52" s="37"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -8360,32 +8490,45 @@
         <v>45277</v>
       </c>
       <c r="B53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C53" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D53" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G53" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="20"/>
+        <v>840</v>
+      </c>
+      <c r="H53" s="20">
+        <v>1.68</v>
+      </c>
       <c r="I53" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J53" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-840</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
+        <v>30961.85</v>
+      </c>
+      <c r="N53" s="30"/>
+      <c r="O53" s="31"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -8394,32 +8537,46 @@
         <v>45278</v>
       </c>
       <c r="B54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C54" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D54" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G54" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H54" s="20">
+        <v>2.23</v>
+      </c>
       <c r="I54" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="J54" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>369</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
+        <v>31330.85</v>
+      </c>
+      <c r="N54" s="30"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -8428,32 +8585,46 @@
         <v>45279</v>
       </c>
       <c r="B55" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C55" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D55" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G55" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H55" s="20">
+        <v>1.85</v>
+      </c>
       <c r="I55" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J55" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
+        <v>31585.85</v>
+      </c>
+      <c r="N55" s="30"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -8462,32 +8633,46 @@
         <v>45280</v>
       </c>
       <c r="B56" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C56" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D56" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G56" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H56" s="20">
+        <v>1.8</v>
+      </c>
       <c r="I56" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J56" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L56" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N56" s="31"/>
-      <c r="O56" s="32"/>
+        <v>31825.85</v>
+      </c>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -8496,32 +8681,46 @@
         <v>45281</v>
       </c>
       <c r="B57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C57" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D57" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G57" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1.75</v>
+      </c>
       <c r="I57" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J57" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
+        <v>32050.85</v>
+      </c>
+      <c r="N57" s="30"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8530,32 +8729,42 @@
         <v>45282</v>
       </c>
       <c r="B58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C58" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D58" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G58" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1.75</v>
       </c>
       <c r="J58" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="35"/>
+        <v>31750.85</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8564,32 +8773,46 @@
         <v>45283</v>
       </c>
       <c r="B59" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C59" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D59" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H59" s="20">
+        <v>2.1</v>
+      </c>
       <c r="I59" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="J59" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L59" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="68"/>
+        <v>31915.85</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -8598,29 +8821,43 @@
         <v>45284</v>
       </c>
       <c r="B60" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C60" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D60" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G60" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H60" s="20">
+        <v>1.8</v>
+      </c>
       <c r="I60" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J60" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L60" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>32155.85</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8628,29 +8865,42 @@
         <v>45285</v>
       </c>
       <c r="B61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C61" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D61" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G61" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H61" s="20">
+        <v>2.48</v>
+      </c>
       <c r="I61" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>31855.85</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8658,29 +8908,43 @@
         <v>45286</v>
       </c>
       <c r="B62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C62" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D62" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G62" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="H62" s="20">
+        <v>3.4</v>
+      </c>
       <c r="I62" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="J62" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L62" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>32215.85</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8688,29 +8952,43 @@
         <v>45287</v>
       </c>
       <c r="B63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C63" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D63" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G63" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H63" s="20">
+        <v>1.7</v>
+      </c>
       <c r="I63" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="J63" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>32425.85</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8718,29 +8996,42 @@
         <v>45288</v>
       </c>
       <c r="B64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C64" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D64" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G64" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H64" s="20">
+        <v>2.65</v>
+      </c>
       <c r="I64" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L64" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>32125.85</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8748,29 +9039,42 @@
         <v>45289</v>
       </c>
       <c r="B65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C65" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D65" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G65" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H65" s="20">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I65" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L65" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>31825.85</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8778,29 +9082,43 @@
         <v>45290</v>
       </c>
       <c r="B66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C66" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D66" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G66" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H66" s="20">
+        <v>2.1</v>
+      </c>
       <c r="I66" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J66" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L66" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
+        <v>32155.85</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8808,29 +9126,43 @@
         <v>45291</v>
       </c>
       <c r="B67" s="17">
-        <f t="shared" ref="B67:B98" si="7">SUMIF(D$2:D$67,A67,J$2:J$67)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C67" s="19">
         <f t="shared" ref="C67:C98" si="8">B67/L$1</f>
         <v>0</v>
       </c>
+      <c r="D67" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G67" s="17">
         <f t="shared" ref="G67:G98" si="9">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1.7</v>
+      </c>
       <c r="I67" s="17">
         <f t="shared" ref="I67:I98" si="10">IFERROR(H67*G67, 0)</f>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="J67" s="17">
         <f t="shared" ref="J67:J98" si="11">IFERROR(I67-G67, 0)</f>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L98" si="12">L66+J67</f>
-        <v>32282</v>
+        <v>32365.85</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8838,28 +9170,42 @@
         <v>45292</v>
       </c>
       <c r="B68" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C68" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D68" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G68" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1.75</v>
       </c>
       <c r="I68" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J68" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L68" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>32065.85</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8867,28 +9213,43 @@
         <v>45293</v>
       </c>
       <c r="B69" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C69" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D69" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G69" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2.13</v>
       </c>
       <c r="I69" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J69" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L69" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>32404.85</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8896,28 +9257,42 @@
         <v>45294</v>
       </c>
       <c r="B70" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C70" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D70" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G70" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.1800000000000002</v>
       </c>
       <c r="I70" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J70" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L70" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>32104.85</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8925,28 +9300,42 @@
         <v>45295</v>
       </c>
       <c r="B71" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C71" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D71" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G71" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2.48</v>
       </c>
       <c r="I71" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L71" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31804.85</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -8954,28 +9343,43 @@
         <v>45296</v>
       </c>
       <c r="B72" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C72" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D72" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G72" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.8</v>
       </c>
       <c r="I72" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J72" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR((I72-G72)/2, 0)</f>
+        <v>120</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L72" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31924.85</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8983,28 +9387,43 @@
         <v>45297</v>
       </c>
       <c r="B73" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C73" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D73" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G73" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.8</v>
       </c>
       <c r="I73" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J73" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR((I73-G73)/2, 0)</f>
+        <v>120</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L73" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>32044.85</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -9012,28 +9431,42 @@
         <v>45298</v>
       </c>
       <c r="B74" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C74" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D74" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G74" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.98</v>
       </c>
       <c r="I74" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31744.85</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -9041,28 +9474,43 @@
         <v>45299</v>
       </c>
       <c r="B75" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C75" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D75" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G75" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1.8</v>
       </c>
       <c r="I75" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J75" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L75" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31984.85</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -9070,28 +9518,42 @@
         <v>45300</v>
       </c>
       <c r="B76" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B76:B98" si="13">SUMIF(D$2:D$98,A76,J$2:J$98)</f>
         <v>0</v>
       </c>
       <c r="C76" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D76" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G76" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3.83</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J76" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L76" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31684.85</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -9099,28 +9561,43 @@
         <v>45301</v>
       </c>
       <c r="B77" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C77" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D77" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G77" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2.1</v>
       </c>
       <c r="I77" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J77" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR((I77-G77)/2, 0)</f>
+        <v>165</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L77" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31849.85</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -9128,28 +9605,43 @@
         <v>45302</v>
       </c>
       <c r="B78" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C78" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D78" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G78" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1.75</v>
       </c>
       <c r="I78" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J78" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR((I78-G78)/2, 0)</f>
+        <v>112.5</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L78" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31962.35</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -9157,28 +9649,42 @@
         <v>45303</v>
       </c>
       <c r="B79" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C79" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D79" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G79" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1.7</v>
       </c>
       <c r="I79" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J79" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L79" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31662.35</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9186,28 +9692,42 @@
         <v>45304</v>
       </c>
       <c r="B80" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C80" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D80" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G80" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1.8</v>
       </c>
       <c r="I80" s="17">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J80" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L80" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31362.35</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9215,28 +9735,43 @@
         <v>45305</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C81" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="D81" s="14">
+        <v>45234</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G81" s="17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I81" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="J81" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L81" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -9244,7 +9779,7 @@
         <v>45306</v>
       </c>
       <c r="B82" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C82" s="19">
@@ -9263,9 +9798,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="K82" s="17">
+        <f>SUM(J39:J81)</f>
+        <v>-1117.6500000000001</v>
+      </c>
       <c r="L82" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9273,7 +9812,7 @@
         <v>45307</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C83" s="19">
@@ -9292,9 +9831,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="K83" s="1">
+        <f>K82/L1*100</f>
+        <v>-3.7255000000000003</v>
+      </c>
       <c r="L83" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9302,7 +9845,7 @@
         <v>45308</v>
       </c>
       <c r="B84" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C84" s="19">
@@ -9321,9 +9864,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="K84" s="17">
+        <f>SUM(J54:J81)</f>
+        <v>760.5</v>
+      </c>
       <c r="L84" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9331,7 +9878,7 @@
         <v>45309</v>
       </c>
       <c r="B85" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C85" s="19">
@@ -9350,9 +9897,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="K85" s="1">
+        <f>K84/L1*100</f>
+        <v>2.5350000000000001</v>
+      </c>
       <c r="L85" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9360,7 +9911,7 @@
         <v>45310</v>
       </c>
       <c r="B86" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C86" s="19">
@@ -9381,7 +9932,7 @@
       </c>
       <c r="L86" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9389,7 +9940,7 @@
         <v>45311</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C87" s="19">
@@ -9410,7 +9961,7 @@
       </c>
       <c r="L87" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9418,7 +9969,7 @@
         <v>45312</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C88" s="19">
@@ -9439,7 +9990,7 @@
       </c>
       <c r="L88" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -9447,7 +9998,7 @@
         <v>45313</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C89" s="19">
@@ -9468,7 +10019,7 @@
       </c>
       <c r="L89" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -9476,7 +10027,7 @@
         <v>45314</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C90" s="19">
@@ -9497,7 +10048,7 @@
       </c>
       <c r="L90" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -9505,7 +10056,7 @@
         <v>45315</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C91" s="19">
@@ -9526,7 +10077,7 @@
       </c>
       <c r="L91" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9534,7 +10085,7 @@
         <v>45316</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C92" s="19">
@@ -9555,7 +10106,7 @@
       </c>
       <c r="L92" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9563,7 +10114,7 @@
         <v>45317</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C93" s="19">
@@ -9584,7 +10135,7 @@
       </c>
       <c r="L93" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9592,7 +10143,7 @@
         <v>45318</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C94" s="19">
@@ -9613,7 +10164,7 @@
       </c>
       <c r="L94" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9621,7 +10172,7 @@
         <v>45319</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C95" s="19">
@@ -9642,7 +10193,7 @@
       </c>
       <c r="L95" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9650,7 +10201,7 @@
         <v>45320</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C96" s="19">
@@ -9671,7 +10222,7 @@
       </c>
       <c r="L96" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9679,7 +10230,7 @@
         <v>45321</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C97" s="19">
@@ -9700,7 +10251,7 @@
       </c>
       <c r="L97" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9708,7 +10259,7 @@
         <v>45322</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C98" s="19">
@@ -9729,11 +10280,40 @@
       </c>
       <c r="L98" s="18">
         <f t="shared" si="12"/>
-        <v>32282</v>
+        <v>31722.35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
@@ -9743,35 +10323,6 @@
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">

--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -958,28 +958,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +986,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,31 +1033,13 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,16 +1060,19 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1365,6 +1365,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1485,11 +1486,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="214128976"/>
-        <c:axId val="214129760"/>
+        <c:axId val="279750552"/>
+        <c:axId val="279751728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214128976"/>
+        <c:axId val="279750552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1533,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214129760"/>
+        <c:crossAx val="279751728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214129760"/>
+        <c:axId val="279751728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1592,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214128976"/>
+        <c:crossAx val="279750552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,6 +1687,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1860,11 +1862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214131328"/>
-        <c:axId val="214131720"/>
+        <c:axId val="279749768"/>
+        <c:axId val="279747808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214131328"/>
+        <c:axId val="279749768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1919,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214131720"/>
+        <c:crossAx val="279747808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214131720"/>
+        <c:axId val="279747808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1978,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214131328"/>
+        <c:crossAx val="279749768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2076,6 +2078,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2225,11 +2228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269240384"/>
-        <c:axId val="269239208"/>
+        <c:axId val="279746632"/>
+        <c:axId val="279752904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269240384"/>
+        <c:axId val="279746632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2275,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269239208"/>
+        <c:crossAx val="279752904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269239208"/>
+        <c:axId val="279752904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2334,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269240384"/>
+        <c:crossAx val="279746632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2426,6 +2429,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2585,11 +2589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269239600"/>
-        <c:axId val="269236072"/>
+        <c:axId val="279753296"/>
+        <c:axId val="279748200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269239600"/>
+        <c:axId val="279753296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,12 +2646,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269236072"/>
+        <c:crossAx val="279748200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269236072"/>
+        <c:axId val="279748200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2705,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269239600"/>
+        <c:crossAx val="279753296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5574,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6039,11 +6043,11 @@
       </c>
       <c r="B2" s="17">
         <f>SUMIF(D$2:D$67,A2,J$2:J$67)</f>
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="C2" s="19">
         <f>B2/L$1</f>
-        <v>4.5499999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D2" s="14">
         <v>45226</v>
@@ -6083,11 +6087,11 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" ref="B3:B9" si="0">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
-        <v>2211</v>
+        <v>2454</v>
       </c>
       <c r="C3" s="19">
         <f t="shared" ref="C3:C66" si="1">B3/L$1</f>
-        <v>7.3700000000000002E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="D3" s="14">
         <v>45226</v>
@@ -6100,25 +6104,25 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G66" si="2">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H3" s="20">
         <v>2.25</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" ref="I3:I66" si="3">IFERROR(H3*G3, 0)</f>
-        <v>675</v>
+        <v>1350</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J66" si="4">IFERROR(I3-G3, 0)</f>
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" ref="L3:L66" si="5">L2+J3</f>
-        <v>31005</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6127,11 +6131,11 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" si="0"/>
-        <v>-585</v>
+        <v>960</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" si="1"/>
-        <v>-1.95E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D4" s="14">
         <v>45226</v>
@@ -6144,25 +6148,24 @@
       </c>
       <c r="G4" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H4" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" si="3"/>
-        <v>660</v>
+        <v>1320</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="4"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="5"/>
-        <v>31365</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6171,11 +6174,11 @@
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>291.5</v>
+        <v>1313</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="1"/>
-        <v>9.7166666666666669E-3</v>
+        <v>4.3766666666666669E-2</v>
       </c>
       <c r="D5" s="14">
         <v>45227</v>
@@ -6206,7 +6209,7 @@
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>32409</v>
+        <v>32424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6215,11 +6218,11 @@
       </c>
       <c r="B6" s="17">
         <f t="shared" si="0"/>
-        <v>-442.5</v>
+        <v>-540</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="1"/>
-        <v>-1.4749999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D6" s="14">
         <v>45227</v>
@@ -6250,7 +6253,7 @@
       </c>
       <c r="L6" s="18">
         <f t="shared" si="5"/>
-        <v>33039</v>
+        <v>33054</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6259,11 +6262,11 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="0"/>
-        <v>-657</v>
+        <v>-108</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="1"/>
-        <v>-2.1899999999999999E-2</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="D7" s="14">
         <v>45227</v>
@@ -6294,7 +6297,7 @@
       </c>
       <c r="L7" s="18">
         <f t="shared" si="5"/>
-        <v>33333</v>
+        <v>33348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6320,25 +6323,25 @@
       </c>
       <c r="G8" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H8" s="20">
         <v>2.1</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>1260</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="5"/>
-        <v>33663</v>
+        <v>34008</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6347,11 +6350,11 @@
       </c>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
-        <v>164.25</v>
+        <v>807</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="1"/>
-        <v>5.4749999999999998E-3</v>
+        <v>2.69E-2</v>
       </c>
       <c r="D9" s="14">
         <v>45227</v>
@@ -6364,25 +6367,25 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H9" s="20">
         <v>2.2799999999999998</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>683.99999999999989</v>
+        <v>1367.9999999999998</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="4"/>
-        <v>383.99999999999989</v>
+        <v>767.99999999999977</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="5"/>
-        <v>34047</v>
+        <v>34776</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6391,11 +6394,11 @@
       </c>
       <c r="B10" s="17">
         <f>SUMIF(D$2:D$81,A10,J$2:J$81)</f>
-        <v>-624.90000000000009</v>
+        <v>2985.6</v>
       </c>
       <c r="C10" s="19">
         <f>B10/L$1</f>
-        <v>-2.0830000000000005E-2</v>
+        <v>9.9519999999999997E-2</v>
       </c>
       <c r="D10" s="14">
         <v>45227</v>
@@ -6408,7 +6411,7 @@
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H10" s="20">
         <v>2.5299999999999998</v>
@@ -6418,14 +6421,14 @@
       </c>
       <c r="J10" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="5"/>
-        <v>33747</v>
+        <v>34176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6451,7 +6454,7 @@
       </c>
       <c r="G11" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H11" s="20">
         <v>2.85</v>
@@ -6461,14 +6464,14 @@
       </c>
       <c r="J11" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="5"/>
-        <v>33447</v>
+        <v>33576</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6494,7 +6497,7 @@
       </c>
       <c r="G12" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H12" s="20">
         <v>2.85</v>
@@ -6504,14 +6507,14 @@
       </c>
       <c r="J12" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="5"/>
-        <v>33147</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6537,7 +6540,7 @@
       </c>
       <c r="G13" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H13" s="20">
         <v>2.35</v>
@@ -6547,14 +6550,14 @@
       </c>
       <c r="J13" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="5"/>
-        <v>32847</v>
+        <v>32376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6580,25 +6583,25 @@
       </c>
       <c r="G14" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H14" s="20">
         <v>2.13</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="3"/>
-        <v>639</v>
+        <v>1278</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>678</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="5"/>
-        <v>33186</v>
+        <v>33054</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6624,25 +6627,25 @@
       </c>
       <c r="G15" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H15" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="3"/>
-        <v>690</v>
+        <v>1380</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="4"/>
-        <v>390</v>
+        <v>780</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="5"/>
-        <v>33576</v>
+        <v>33834</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6685,14 +6688,14 @@
       </c>
       <c r="L16" s="18">
         <f t="shared" si="5"/>
-        <v>33036</v>
-      </c>
-      <c r="N16" s="65" t="s">
+        <v>33294</v>
+      </c>
+      <c r="N16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -6717,34 +6720,34 @@
       </c>
       <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H17" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="3"/>
-        <v>660</v>
+        <v>1320</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="5"/>
-        <v>33396</v>
-      </c>
-      <c r="N17" s="38" t="s">
+        <v>34014</v>
+      </c>
+      <c r="N17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="58"/>
+      <c r="P17" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -6769,7 +6772,7 @@
       </c>
       <c r="G18" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H18" s="20">
         <v>2.2000000000000002</v>
@@ -6778,26 +6781,25 @@
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="5"/>
-        <v>33096</v>
-      </c>
-      <c r="N18" s="41">
+        <v>34014</v>
+      </c>
+      <c r="N18" s="46">
         <f>painel!B19</f>
         <v>30000</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="63">
+      <c r="O18" s="60"/>
+      <c r="P18" s="62">
         <f>N18+SUM(J:J)</f>
-        <v>31722.35</v>
-      </c>
-      <c r="Q18" s="43"/>
+        <v>39251.599999999999</v>
+      </c>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -6822,7 +6824,7 @@
       </c>
       <c r="G19" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H19" s="20">
         <v>2.2000000000000002</v>
@@ -6831,20 +6833,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="5"/>
-        <v>32796</v>
-      </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="49"/>
+        <v>34014</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -6869,32 +6870,32 @@
       </c>
       <c r="G20" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H20" s="20">
         <v>1.75</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="3"/>
-        <v>262.5</v>
+        <v>1050</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" si="4"/>
-        <v>112.5</v>
+        <v>450</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="5"/>
-        <v>32908.5</v>
-      </c>
-      <c r="N20" s="38" t="s">
+        <v>34464</v>
+      </c>
+      <c r="N20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -6919,33 +6920,33 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H21" s="20">
         <v>1.65</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="3"/>
-        <v>247.5</v>
+        <v>990</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="4"/>
-        <v>97.5</v>
+        <v>390</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="5"/>
-        <v>33006</v>
-      </c>
-      <c r="N21" s="41">
+        <v>34854</v>
+      </c>
+      <c r="N21" s="46">
         <f>SUM(P18-N18)</f>
-        <v>1722.3499999999985</v>
-      </c>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
+        <v>9251.5999999999985</v>
+      </c>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6970,30 +6971,30 @@
       </c>
       <c r="G22" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H22" s="20">
         <v>1.9</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>1140</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L22" s="18">
         <f t="shared" si="5"/>
-        <v>33141</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
+        <v>35394</v>
+      </c>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -7018,7 +7019,7 @@
       </c>
       <c r="G23" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H23" s="20">
         <v>2.02</v>
@@ -7028,19 +7029,19 @@
       </c>
       <c r="J23" s="17">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-600</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>32991</v>
-      </c>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
+        <v>34794</v>
+      </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -7065,32 +7066,32 @@
       </c>
       <c r="G24" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H24" s="20">
         <v>1.85</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="3"/>
-        <v>277.5</v>
+        <v>1110</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="4"/>
-        <v>127.5</v>
+        <v>510</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L24" s="18">
         <f t="shared" si="5"/>
-        <v>33118.5</v>
-      </c>
-      <c r="N24" s="38" t="s">
+        <v>35304</v>
+      </c>
+      <c r="N24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -7115,7 +7116,7 @@
       </c>
       <c r="G25" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H25" s="20">
         <v>1.9</v>
@@ -7132,14 +7133,14 @@
       </c>
       <c r="L25" s="18">
         <f t="shared" si="5"/>
-        <v>33069.5</v>
-      </c>
-      <c r="N25" s="38" t="s">
+        <v>35255</v>
+      </c>
+      <c r="N25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -7164,33 +7165,33 @@
       </c>
       <c r="G26" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H26" s="20">
         <v>1.92</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>552</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="5"/>
-        <v>33207.5</v>
-      </c>
-      <c r="N26" s="50">
+        <v>35807</v>
+      </c>
+      <c r="N26" s="40">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>5.7411666666666618E-2</v>
-      </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+        <v>0.30838666666666664</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -7215,30 +7216,30 @@
       </c>
       <c r="G27" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H27" s="20">
         <v>1.84</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>1104</v>
       </c>
       <c r="J27" s="17">
         <f>IFERROR((I27-G27)/2, 0)</f>
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="5"/>
-        <v>33270.5</v>
-      </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+        <v>36059</v>
+      </c>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -7263,7 +7264,7 @@
       </c>
       <c r="G28" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H28" s="20">
         <v>1.98</v>
@@ -7273,14 +7274,14 @@
       </c>
       <c r="J28" s="17">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-600</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="5"/>
-        <v>33120.5</v>
+        <v>35459</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
@@ -7310,7 +7311,7 @@
       </c>
       <c r="G29" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H29" s="20">
         <v>1.8</v>
@@ -7320,21 +7321,21 @@
       </c>
       <c r="J29" s="17">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-600</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="5"/>
-        <v>32970.5</v>
-      </c>
-      <c r="N29" s="35" t="s">
+        <v>34859</v>
+      </c>
+      <c r="N29" s="33" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -7359,30 +7360,30 @@
       </c>
       <c r="G30" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H30" s="20">
         <v>1.91</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="3"/>
-        <v>286.5</v>
+        <v>1146</v>
       </c>
       <c r="J30" s="17">
         <f>IFERROR((I30-G30)/2, 0)</f>
-        <v>68.25</v>
+        <v>273</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="5"/>
-        <v>33038.75</v>
-      </c>
-      <c r="N30" s="35" t="s">
+        <v>35132</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="37"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7413,30 +7414,30 @@
       </c>
       <c r="G31" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H31" s="20">
         <v>1.8</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>1080</v>
       </c>
       <c r="J31" s="17">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="5"/>
-        <v>33158.75</v>
-      </c>
-      <c r="N31" s="30" t="s">
+        <v>35612</v>
+      </c>
+      <c r="N31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="31"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7468,30 +7469,30 @@
       </c>
       <c r="G32" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H32" s="20">
         <v>1.85</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="3"/>
-        <v>277.5</v>
+        <v>1110</v>
       </c>
       <c r="J32" s="17">
         <f>IFERROR((I32-G32)/2, 0)</f>
-        <v>63.75</v>
+        <v>255</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="5"/>
-        <v>33222.5</v>
-      </c>
-      <c r="N32" s="30" t="s">
+        <v>35867</v>
+      </c>
+      <c r="N32" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="31"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7523,30 +7524,30 @@
       </c>
       <c r="G33" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H33" s="20">
         <v>1.8</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>1080</v>
       </c>
       <c r="J33" s="17">
         <f>IFERROR((I33-G33)/2, 0)</f>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="5"/>
-        <v>33282.5</v>
-      </c>
-      <c r="N33" s="30" t="s">
+        <v>36107</v>
+      </c>
+      <c r="N33" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7578,30 +7579,29 @@
       </c>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H34" s="20">
         <v>2.85</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="3"/>
-        <v>427.5</v>
+        <v>1710</v>
       </c>
       <c r="J34" s="17">
-        <f t="shared" si="4"/>
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="5"/>
-        <v>33560</v>
-      </c>
-      <c r="N34" s="30" t="s">
+        <v>36107</v>
+      </c>
+      <c r="N34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="31"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="G35" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H35" s="20">
         <v>1.8</v>
@@ -7642,20 +7642,19 @@
         <v>0</v>
       </c>
       <c r="J35" s="17">
-        <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="5"/>
-        <v>33410</v>
-      </c>
-      <c r="N35" s="30" t="s">
+        <v>36107</v>
+      </c>
+      <c r="N35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="31"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7687,36 +7686,35 @@
       </c>
       <c r="G36" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H36" s="20">
         <v>1.8</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>1080</v>
       </c>
       <c r="J36" s="17">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L36" s="27">
         <f t="shared" si="5"/>
-        <v>33530</v>
-      </c>
-      <c r="N36" s="30" t="s">
+        <v>36107</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="32"/>
+      <c r="O36" s="35"/>
       <c r="P36" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="26">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7759,18 +7757,18 @@
       </c>
       <c r="L37" s="18">
         <f>L36+J37</f>
-        <v>32990</v>
-      </c>
-      <c r="N37" s="68" t="s">
+        <v>35567</v>
+      </c>
+      <c r="N37" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="68"/>
+      <c r="O37" s="30"/>
       <c r="P37" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="26">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7796,7 +7794,7 @@
       </c>
       <c r="G38" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H38" s="20">
         <v>1.89</v>
@@ -7805,20 +7803,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="5"/>
-        <v>32840</v>
-      </c>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
+        <v>35567</v>
+      </c>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="66"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -7860,12 +7857,12 @@
       </c>
       <c r="L39" s="18">
         <f t="shared" si="5"/>
-        <v>32000</v>
-      </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="40"/>
+        <v>34727</v>
+      </c>
+      <c r="N39" s="37"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -7890,7 +7887,7 @@
       </c>
       <c r="G40" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H40" s="20">
         <v>1.9</v>
@@ -7900,19 +7897,19 @@
       </c>
       <c r="J40" s="17">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-600</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" si="5"/>
-        <v>31850</v>
-      </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="43"/>
+        <v>34127</v>
+      </c>
+      <c r="N40" s="46"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -7937,30 +7934,30 @@
       </c>
       <c r="G41" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H41" s="20">
         <v>1.92</v>
       </c>
       <c r="I41" s="17">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="J41" s="17">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>552</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L41" s="18">
         <f t="shared" si="5"/>
-        <v>31988</v>
-      </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="49"/>
+        <v>34679</v>
+      </c>
+      <c r="N41" s="52"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="54"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -7985,14 +7982,14 @@
       </c>
       <c r="G42" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H42" s="20">
         <v>1.82</v>
       </c>
       <c r="I42" s="17">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>1092</v>
       </c>
       <c r="J42" s="17">
         <v>0</v>
@@ -8002,12 +7999,12 @@
       </c>
       <c r="L42" s="18">
         <f t="shared" si="5"/>
-        <v>31988</v>
-      </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="40"/>
+        <v>34679</v>
+      </c>
+      <c r="N42" s="37"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -8032,30 +8029,30 @@
       </c>
       <c r="G43" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H43" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="I43" s="17">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>1380</v>
       </c>
       <c r="J43" s="17">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>780</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="5"/>
-        <v>32183</v>
-      </c>
-      <c r="N43" s="41"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
+        <v>35459</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -8080,30 +8077,29 @@
       </c>
       <c r="G44" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H44" s="20">
         <v>1.75</v>
       </c>
       <c r="I44" s="17">
         <f t="shared" si="3"/>
-        <v>262.5</v>
+        <v>1050</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="4"/>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="L44" s="18">
         <f t="shared" si="5"/>
-        <v>32295.5</v>
-      </c>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="46"/>
+        <v>35459</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -8128,7 +8124,7 @@
       </c>
       <c r="G45" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H45" s="20">
         <v>1.9</v>
@@ -8138,19 +8134,19 @@
       </c>
       <c r="J45" s="17">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-600</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L45" s="18">
         <f t="shared" si="5"/>
-        <v>32145.5</v>
-      </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49"/>
+        <v>34859</v>
+      </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="54"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -8175,30 +8171,30 @@
       </c>
       <c r="G46" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H46" s="20">
         <v>1.96</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>1176</v>
       </c>
       <c r="J46" s="17">
         <f>IFERROR(I46-G46, 0)</f>
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L46" s="18">
         <f t="shared" si="5"/>
-        <v>32289.5</v>
-      </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="40"/>
+        <v>35435</v>
+      </c>
+      <c r="N46" s="37"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -8223,30 +8219,30 @@
       </c>
       <c r="G47" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H47" s="20">
         <v>1.95</v>
       </c>
       <c r="I47" s="17">
         <f t="shared" si="3"/>
-        <v>292.5</v>
+        <v>1170</v>
       </c>
       <c r="J47" s="17">
         <f t="shared" si="4"/>
-        <v>142.5</v>
+        <v>570</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L47" s="18">
         <f t="shared" si="5"/>
-        <v>32432</v>
-      </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="40"/>
+        <v>36005</v>
+      </c>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="39"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -8271,7 +8267,7 @@
       </c>
       <c r="G48" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H48" s="20">
         <v>1.92</v>
@@ -8280,20 +8276,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="17">
-        <f>IFERROR(I48-G48, 0)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L48" s="18">
         <f t="shared" si="5"/>
-        <v>32282</v>
-      </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="52"/>
+        <v>36005</v>
+      </c>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -8318,30 +8313,30 @@
       </c>
       <c r="G49" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H49" s="20">
         <v>1.87</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" si="3"/>
-        <v>280.5</v>
+        <v>1122</v>
       </c>
       <c r="J49" s="17">
         <f>IFERROR((I49-G49)/2, 0)</f>
-        <v>65.25</v>
+        <v>261</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L49" s="18">
         <f t="shared" si="5"/>
-        <v>32347.25</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="55"/>
+        <v>36266</v>
+      </c>
+      <c r="N49" s="43"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -8383,7 +8378,7 @@
       </c>
       <c r="L50" s="18">
         <f t="shared" si="5"/>
-        <v>31807.25</v>
+        <v>35726</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -8430,12 +8425,12 @@
       </c>
       <c r="L51" s="18">
         <f t="shared" si="5"/>
-        <v>31267.25</v>
-      </c>
-      <c r="N51" s="35"/>
+        <v>35186</v>
+      </c>
+      <c r="N51" s="33"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-      <c r="Q51" s="37"/>
+      <c r="Q51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -8478,10 +8473,10 @@
       </c>
       <c r="L52" s="18">
         <f t="shared" si="5"/>
-        <v>31801.85</v>
-      </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="37"/>
+        <v>35720.6</v>
+      </c>
+      <c r="N52" s="33"/>
+      <c r="O52" s="34"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -8525,10 +8520,10 @@
       </c>
       <c r="L53" s="18">
         <f t="shared" si="5"/>
-        <v>30961.85</v>
-      </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="31"/>
+        <v>34880.6</v>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -8555,28 +8550,28 @@
       </c>
       <c r="G54" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H54" s="20">
         <v>2.23</v>
       </c>
       <c r="I54" s="17">
         <f t="shared" si="3"/>
-        <v>669</v>
+        <v>1338</v>
       </c>
       <c r="J54" s="17">
         <f t="shared" si="4"/>
-        <v>369</v>
+        <v>738</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="5"/>
-        <v>31330.85</v>
-      </c>
-      <c r="N54" s="30"/>
-      <c r="O54" s="31"/>
+        <v>35618.6</v>
+      </c>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -8603,28 +8598,28 @@
       </c>
       <c r="G55" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H55" s="20">
         <v>1.85</v>
       </c>
       <c r="I55" s="17">
         <f t="shared" si="3"/>
-        <v>555</v>
+        <v>1110</v>
       </c>
       <c r="J55" s="17">
         <f t="shared" si="4"/>
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="5"/>
-        <v>31585.85</v>
-      </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="31"/>
+        <v>36128.6</v>
+      </c>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -8651,28 +8646,28 @@
       </c>
       <c r="G56" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H56" s="20">
         <v>1.8</v>
       </c>
       <c r="I56" s="17">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="J56" s="17">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L56" s="18">
         <f t="shared" si="5"/>
-        <v>31825.85</v>
-      </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="31"/>
+        <v>36608.6</v>
+      </c>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -8699,28 +8694,28 @@
       </c>
       <c r="G57" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H57" s="20">
         <v>1.75</v>
       </c>
       <c r="I57" s="17">
         <f t="shared" si="3"/>
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="J57" s="17">
         <f t="shared" si="4"/>
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" si="5"/>
-        <v>32050.85</v>
-      </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="31"/>
+        <v>37058.6</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8747,24 +8742,23 @@
       </c>
       <c r="G58" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H58" s="20">
         <v>1.75</v>
       </c>
       <c r="J58" s="17">
-        <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>111</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="5"/>
-        <v>31750.85</v>
-      </c>
-      <c r="N58" s="30"/>
-      <c r="O58" s="32"/>
+        <v>37058.6</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="35"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8791,28 +8785,28 @@
       </c>
       <c r="G59" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H59" s="20">
         <v>2.1</v>
       </c>
       <c r="I59" s="17">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>1260</v>
       </c>
       <c r="J59" s="17">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>660</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="18">
         <f t="shared" si="5"/>
-        <v>31915.85</v>
-      </c>
-      <c r="N59" s="33"/>
-      <c r="O59" s="34"/>
+        <v>37718.6</v>
+      </c>
+      <c r="N59" s="67"/>
+      <c r="O59" s="68"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -8839,25 +8833,25 @@
       </c>
       <c r="G60" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H60" s="20">
         <v>1.8</v>
       </c>
       <c r="I60" s="17">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="J60" s="17">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L60" s="18">
         <f t="shared" si="5"/>
-        <v>32155.85</v>
+        <v>38198.6</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8883,7 +8877,7 @@
       </c>
       <c r="G61" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H61" s="20">
         <v>2.48</v>
@@ -8893,14 +8887,14 @@
       </c>
       <c r="J61" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" si="5"/>
-        <v>31855.85</v>
+        <v>37598.6</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8926,25 +8920,25 @@
       </c>
       <c r="G62" s="17">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H62" s="20">
         <v>3.4</v>
       </c>
       <c r="I62" s="17">
         <f t="shared" si="3"/>
-        <v>510</v>
+        <v>2040</v>
       </c>
       <c r="J62" s="17">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>1440</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L62" s="18">
         <f t="shared" si="5"/>
-        <v>32215.85</v>
+        <v>39038.6</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8970,25 +8964,25 @@
       </c>
       <c r="G63" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H63" s="20">
         <v>1.7</v>
       </c>
       <c r="I63" s="17">
         <f t="shared" si="3"/>
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="J63" s="17">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" si="5"/>
-        <v>32425.85</v>
+        <v>39458.6</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -9014,7 +9008,7 @@
       </c>
       <c r="G64" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H64" s="20">
         <v>2.65</v>
@@ -9024,14 +9018,14 @@
       </c>
       <c r="J64" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L64" s="18">
         <f t="shared" si="5"/>
-        <v>32125.85</v>
+        <v>38858.6</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -9057,7 +9051,7 @@
       </c>
       <c r="G65" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H65" s="20">
         <v>2.2999999999999998</v>
@@ -9067,14 +9061,14 @@
       </c>
       <c r="J65" s="17">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L65" s="18">
         <f t="shared" si="5"/>
-        <v>31825.85</v>
+        <v>38258.6</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -9100,25 +9094,25 @@
       </c>
       <c r="G66" s="17">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H66" s="20">
         <v>2.1</v>
       </c>
       <c r="I66" s="17">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>1260</v>
       </c>
       <c r="J66" s="17">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L66" s="18">
         <f t="shared" si="5"/>
-        <v>32155.85</v>
+        <v>38918.6</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -9144,25 +9138,25 @@
       </c>
       <c r="G67" s="17">
         <f t="shared" ref="G67:G98" si="9">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H67" s="20">
         <v>1.7</v>
       </c>
       <c r="I67" s="17">
         <f t="shared" ref="I67:I98" si="10">IFERROR(H67*G67, 0)</f>
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="J67" s="17">
         <f t="shared" ref="J67:J98" si="11">IFERROR(I67-G67, 0)</f>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L98" si="12">L66+J67</f>
-        <v>32365.85</v>
+        <v>39338.6</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -9188,7 +9182,7 @@
       </c>
       <c r="G68" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H68" s="1">
         <v>1.75</v>
@@ -9197,15 +9191,14 @@
         <v>0</v>
       </c>
       <c r="J68" s="17">
-        <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L68" s="18">
         <f t="shared" si="12"/>
-        <v>32065.85</v>
+        <v>39338.6</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -9231,25 +9224,25 @@
       </c>
       <c r="G69" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H69" s="1">
         <v>2.13</v>
       </c>
       <c r="I69" s="17">
         <f t="shared" si="10"/>
-        <v>639</v>
+        <v>1278</v>
       </c>
       <c r="J69" s="17">
         <f t="shared" si="11"/>
-        <v>339</v>
+        <v>678</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L69" s="18">
         <f t="shared" si="12"/>
-        <v>32404.85</v>
+        <v>40016.6</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -9275,7 +9268,7 @@
       </c>
       <c r="G70" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H70" s="1">
         <v>2.1800000000000002</v>
@@ -9285,14 +9278,14 @@
       </c>
       <c r="J70" s="17">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L70" s="18">
         <f t="shared" si="12"/>
-        <v>32104.85</v>
+        <v>39416.6</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -9318,7 +9311,7 @@
       </c>
       <c r="G71" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H71" s="1">
         <v>2.48</v>
@@ -9328,14 +9321,14 @@
       </c>
       <c r="J71" s="17">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L71" s="18">
         <f t="shared" si="12"/>
-        <v>31804.85</v>
+        <v>38816.6</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -9361,25 +9354,25 @@
       </c>
       <c r="G72" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H72" s="1">
         <v>1.8</v>
       </c>
       <c r="I72" s="17">
         <f t="shared" si="10"/>
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="J72" s="17">
         <f>IFERROR((I72-G72)/2, 0)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L72" s="18">
         <f t="shared" si="12"/>
-        <v>31924.85</v>
+        <v>39056.6</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -9405,25 +9398,25 @@
       </c>
       <c r="G73" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H73" s="1">
         <v>1.8</v>
       </c>
       <c r="I73" s="17">
         <f t="shared" si="10"/>
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="J73" s="17">
         <f>IFERROR((I73-G73)/2, 0)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L73" s="18">
         <f t="shared" si="12"/>
-        <v>32044.85</v>
+        <v>39296.6</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -9449,7 +9442,7 @@
       </c>
       <c r="G74" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H74" s="1">
         <v>1.98</v>
@@ -9459,14 +9452,14 @@
       </c>
       <c r="J74" s="17">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" si="12"/>
-        <v>31744.85</v>
+        <v>38696.6</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -9492,25 +9485,25 @@
       </c>
       <c r="G75" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H75" s="1">
         <v>1.8</v>
       </c>
       <c r="I75" s="17">
         <f t="shared" si="10"/>
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="J75" s="17">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L75" s="18">
         <f t="shared" si="12"/>
-        <v>31984.85</v>
+        <v>39176.6</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -9536,7 +9529,7 @@
       </c>
       <c r="G76" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H76" s="1">
         <v>3.83</v>
@@ -9545,15 +9538,14 @@
         <v>0</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L76" s="18">
         <f t="shared" si="12"/>
-        <v>31684.85</v>
+        <v>39176.6</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -9579,25 +9571,25 @@
       </c>
       <c r="G77" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H77" s="1">
         <v>2.1</v>
       </c>
       <c r="I77" s="17">
         <f t="shared" si="10"/>
-        <v>630</v>
+        <v>1260</v>
       </c>
       <c r="J77" s="17">
         <f>IFERROR((I77-G77)/2, 0)</f>
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L77" s="18">
         <f t="shared" si="12"/>
-        <v>31849.85</v>
+        <v>39506.6</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -9623,25 +9615,25 @@
       </c>
       <c r="G78" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H78" s="1">
         <v>1.75</v>
       </c>
       <c r="I78" s="17">
         <f t="shared" si="10"/>
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="J78" s="17">
         <f>IFERROR((I78-G78)/2, 0)</f>
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L78" s="18">
         <f t="shared" si="12"/>
-        <v>31962.35</v>
+        <v>39731.599999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -9667,7 +9659,7 @@
       </c>
       <c r="G79" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H79" s="1">
         <v>1.7</v>
@@ -9677,14 +9669,14 @@
       </c>
       <c r="J79" s="17">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L79" s="18">
         <f t="shared" si="12"/>
-        <v>31662.35</v>
+        <v>39131.599999999999</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9710,7 +9702,7 @@
       </c>
       <c r="G80" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H80" s="1">
         <v>1.8</v>
@@ -9720,14 +9712,14 @@
       </c>
       <c r="J80" s="17">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L80" s="18">
         <f t="shared" si="12"/>
-        <v>31362.35</v>
+        <v>38531.599999999999</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9753,25 +9745,25 @@
       </c>
       <c r="G81" s="17">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H81" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="I81" s="17">
         <f t="shared" si="10"/>
-        <v>660</v>
+        <v>1320</v>
       </c>
       <c r="J81" s="17">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L81" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -9800,11 +9792,11 @@
       </c>
       <c r="K82" s="17">
         <f>SUM(J39:J81)</f>
-        <v>-1117.6500000000001</v>
+        <v>3684.6000000000004</v>
       </c>
       <c r="L82" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9833,11 +9825,11 @@
       </c>
       <c r="K83" s="1">
         <f>K82/L1*100</f>
-        <v>-3.7255000000000003</v>
+        <v>12.282000000000002</v>
       </c>
       <c r="L83" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9866,11 +9858,11 @@
       </c>
       <c r="K84" s="17">
         <f>SUM(J54:J81)</f>
-        <v>760.5</v>
+        <v>4371</v>
       </c>
       <c r="L84" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9899,11 +9891,11 @@
       </c>
       <c r="K85" s="1">
         <f>K84/L1*100</f>
-        <v>2.5350000000000001</v>
+        <v>14.57</v>
       </c>
       <c r="L85" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9932,7 +9924,7 @@
       </c>
       <c r="L86" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9961,7 +9953,7 @@
       </c>
       <c r="L87" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9990,7 +9982,7 @@
       </c>
       <c r="L88" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -10019,7 +10011,7 @@
       </c>
       <c r="L89" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -10048,7 +10040,7 @@
       </c>
       <c r="L90" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -10077,7 +10069,7 @@
       </c>
       <c r="L91" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -10106,7 +10098,7 @@
       </c>
       <c r="L92" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -10135,7 +10127,7 @@
       </c>
       <c r="L93" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -10164,7 +10156,7 @@
       </c>
       <c r="L94" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -10193,7 +10185,7 @@
       </c>
       <c r="L95" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -10222,7 +10214,7 @@
       </c>
       <c r="L96" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -10251,7 +10243,7 @@
       </c>
       <c r="L97" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -10280,11 +10272,40 @@
       </c>
       <c r="L98" s="18">
         <f t="shared" si="12"/>
-        <v>31722.35</v>
+        <v>39251.599999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N30:O30"/>
@@ -10294,35 +10315,6 @@
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">

--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -1365,7 +1365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1486,11 +1485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279750552"/>
-        <c:axId val="279751728"/>
+        <c:axId val="304191248"/>
+        <c:axId val="304190856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279750552"/>
+        <c:axId val="304191248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1532,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279751728"/>
+        <c:crossAx val="304190856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279751728"/>
+        <c:axId val="304190856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1591,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279750552"/>
+        <c:crossAx val="304191248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1862,11 +1860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279749768"/>
-        <c:axId val="279747808"/>
+        <c:axId val="251482240"/>
+        <c:axId val="251483416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279749768"/>
+        <c:axId val="251482240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,12 +1917,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279747808"/>
+        <c:crossAx val="251483416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279747808"/>
+        <c:axId val="251483416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +1976,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279749768"/>
+        <c:crossAx val="251482240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2078,7 +2076,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,11 +2225,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279746632"/>
-        <c:axId val="279752904"/>
+        <c:axId val="208209176"/>
+        <c:axId val="333845112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279746632"/>
+        <c:axId val="208209176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2272,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279752904"/>
+        <c:crossAx val="333845112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279752904"/>
+        <c:axId val="333845112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279746632"/>
+        <c:crossAx val="208209176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2429,7 +2426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2589,11 +2585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279753296"/>
-        <c:axId val="279748200"/>
+        <c:axId val="333845504"/>
+        <c:axId val="333843544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279753296"/>
+        <c:axId val="333845504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,12 +2642,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279748200"/>
+        <c:crossAx val="333843544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279748200"/>
+        <c:axId val="333843544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2701,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279753296"/>
+        <c:crossAx val="333845504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5977,9 +5973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6043,11 +6037,11 @@
       </c>
       <c r="B2" s="17">
         <f>SUMIF(D$2:D$67,A2,J$2:J$67)</f>
-        <v>1380</v>
+        <v>1455</v>
       </c>
       <c r="C2" s="19">
         <f>B2/L$1</f>
-        <v>4.5999999999999999E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="D2" s="14">
         <v>45226</v>
@@ -6087,11 +6081,11 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" ref="B3:B9" si="0">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
-        <v>2454</v>
+        <v>2502.6</v>
       </c>
       <c r="C3" s="19">
-        <f t="shared" ref="C3:C66" si="1">B3/L$1</f>
-        <v>8.1799999999999998E-2</v>
+        <f>B3/L$1</f>
+        <v>8.3419999999999994E-2</v>
       </c>
       <c r="D3" s="14">
         <v>45226</v>
@@ -6103,26 +6097,26 @@
         <v>51</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" ref="G3:G66" si="2">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
-        <v>600</v>
+        <f t="shared" ref="G3:G66" si="1">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
+        <v>660</v>
       </c>
       <c r="H3" s="20">
         <v>2.25</v>
       </c>
       <c r="I3" s="17">
-        <f t="shared" ref="I3:I66" si="3">IFERROR(H3*G3, 0)</f>
-        <v>1350</v>
+        <f t="shared" ref="I3:I66" si="2">IFERROR(H3*G3, 0)</f>
+        <v>1485</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J66" si="4">IFERROR(I3-G3, 0)</f>
-        <v>750</v>
+        <f t="shared" ref="J3:J66" si="3">IFERROR(I3-G3, 0)</f>
+        <v>825</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L66" si="5">L2+J3</f>
-        <v>31380</v>
+        <f t="shared" ref="L3:L66" si="4">L2+J3</f>
+        <v>31455</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6131,11 +6125,11 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>954.00000000000023</v>
       </c>
       <c r="C4" s="19">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" ref="C4:C66" si="5">B4/L$1</f>
+        <v>3.1800000000000009E-2</v>
       </c>
       <c r="D4" s="14">
         <v>45226</v>
@@ -6147,15 +6141,15 @@
         <v>51</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H4" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" si="3"/>
-        <v>1320</v>
+        <f t="shared" si="2"/>
+        <v>1452.0000000000002</v>
       </c>
       <c r="J4" s="17">
         <v>0</v>
@@ -6164,8 +6158,8 @@
         <v>57</v>
       </c>
       <c r="L4" s="18">
-        <f t="shared" si="5"/>
-        <v>31380</v>
+        <f t="shared" si="4"/>
+        <v>31455</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6174,11 +6168,11 @@
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>1313</v>
+        <v>1176.7999999999997</v>
       </c>
       <c r="C5" s="19">
-        <f t="shared" si="1"/>
-        <v>4.3766666666666669E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.922666666666666E-2</v>
       </c>
       <c r="D5" s="14">
         <v>45227</v>
@@ -6190,26 +6184,26 @@
         <v>49</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H5" s="20">
         <v>1.87</v>
       </c>
       <c r="I5" s="17">
+        <f t="shared" si="2"/>
+        <v>2244</v>
+      </c>
+      <c r="J5" s="17">
         <f t="shared" si="3"/>
-        <v>2244</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="4"/>
         <v>1044</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="18">
-        <f t="shared" si="5"/>
-        <v>32424</v>
+        <f t="shared" si="4"/>
+        <v>32499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6221,7 +6215,7 @@
         <v>-540</v>
       </c>
       <c r="C6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D6" s="14">
@@ -6234,26 +6228,26 @@
         <v>40</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="H6" s="20">
         <v>1.75</v>
       </c>
       <c r="I6" s="17">
+        <f t="shared" si="2"/>
+        <v>1470</v>
+      </c>
+      <c r="J6" s="17">
         <f t="shared" si="3"/>
-        <v>1470</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="4"/>
         <v>630</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="5"/>
-        <v>33054</v>
+        <f t="shared" si="4"/>
+        <v>33129</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6262,11 +6256,11 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="0"/>
-        <v>-108</v>
+        <v>-181.20000000000005</v>
       </c>
       <c r="C7" s="19">
-        <f t="shared" si="1"/>
-        <v>-3.5999999999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>-6.0400000000000011E-3</v>
       </c>
       <c r="D7" s="14">
         <v>45227</v>
@@ -6278,14 +6272,14 @@
         <v>40</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="H7" s="20">
         <v>1.7</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1428</v>
       </c>
       <c r="J7" s="17">
@@ -6296,8 +6290,8 @@
         <v>64</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="5"/>
-        <v>33348</v>
+        <f t="shared" si="4"/>
+        <v>33423</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6309,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D8" s="14">
@@ -6322,26 +6316,26 @@
         <v>51</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H8" s="20">
         <v>2.1</v>
       </c>
       <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>1386</v>
+      </c>
+      <c r="J8" s="17">
         <f t="shared" si="3"/>
-        <v>1260</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="4"/>
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="5"/>
-        <v>34008</v>
+        <f t="shared" si="4"/>
+        <v>34149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6350,11 +6344,11 @@
       </c>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
-        <v>807</v>
+        <v>726.30000000000018</v>
       </c>
       <c r="C9" s="19">
-        <f t="shared" si="1"/>
-        <v>2.69E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4210000000000006E-2</v>
       </c>
       <c r="D9" s="14">
         <v>45227</v>
@@ -6366,26 +6360,26 @@
         <v>51</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H9" s="20">
         <v>2.2799999999999998</v>
       </c>
       <c r="I9" s="17">
+        <f t="shared" si="2"/>
+        <v>1504.8</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>1367.9999999999998</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="4"/>
-        <v>767.99999999999977</v>
+        <v>844.8</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="5"/>
-        <v>34776</v>
+        <f t="shared" si="4"/>
+        <v>34993.800000000003</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6394,11 +6388,11 @@
       </c>
       <c r="B10" s="17">
         <f>SUMIF(D$2:D$81,A10,J$2:J$81)</f>
-        <v>2985.6</v>
+        <v>3002.7</v>
       </c>
       <c r="C10" s="19">
         <f>B10/L$1</f>
-        <v>9.9519999999999997E-2</v>
+        <v>0.10009</v>
       </c>
       <c r="D10" s="14">
         <v>45227</v>
@@ -6410,8 +6404,8 @@
         <v>51</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H10" s="20">
         <v>2.5299999999999998</v>
@@ -6420,15 +6414,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="5"/>
-        <v>34176</v>
+        <f t="shared" si="4"/>
+        <v>34333.800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6440,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11" s="14">
@@ -6453,8 +6447,8 @@
         <v>51</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H11" s="20">
         <v>2.85</v>
@@ -6463,15 +6457,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="5"/>
-        <v>33576</v>
+        <f t="shared" si="4"/>
+        <v>33673.800000000003</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6483,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12" s="14">
@@ -6496,8 +6490,8 @@
         <v>51</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H12" s="20">
         <v>2.85</v>
@@ -6506,15 +6500,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="5"/>
-        <v>32976</v>
+        <f t="shared" si="4"/>
+        <v>33013.800000000003</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6526,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13" s="14">
@@ -6539,8 +6533,8 @@
         <v>51</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H13" s="20">
         <v>2.35</v>
@@ -6549,15 +6543,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="5"/>
-        <v>32376</v>
+        <f t="shared" si="4"/>
+        <v>32353.800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6569,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D14" s="14">
@@ -6582,26 +6576,26 @@
         <v>51</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H14" s="20">
         <v>2.13</v>
       </c>
       <c r="I14" s="17">
+        <f t="shared" si="2"/>
+        <v>1405.8</v>
+      </c>
+      <c r="J14" s="17">
         <f t="shared" si="3"/>
-        <v>1278</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="4"/>
-        <v>678</v>
+        <v>745.8</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="5"/>
-        <v>33054</v>
+        <f t="shared" si="4"/>
+        <v>33099.600000000006</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6613,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D15" s="14">
@@ -6626,26 +6620,26 @@
         <v>51</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H15" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="I15" s="17">
+        <f t="shared" si="2"/>
+        <v>1517.9999999999998</v>
+      </c>
+      <c r="J15" s="17">
         <f t="shared" si="3"/>
-        <v>1380</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="4"/>
-        <v>780</v>
+        <v>857.99999999999977</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="5"/>
-        <v>33834</v>
+        <f t="shared" si="4"/>
+        <v>33957.600000000006</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6657,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D16" s="14">
@@ -6670,7 +6664,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="H16" s="20">
@@ -6680,15 +6674,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-540</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="5"/>
-        <v>33294</v>
+        <f t="shared" si="4"/>
+        <v>33417.600000000006</v>
       </c>
       <c r="N16" s="55" t="s">
         <v>42</v>
@@ -6706,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D17" s="14">
@@ -6719,26 +6713,26 @@
         <v>51</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H17" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>1452.0000000000002</v>
+      </c>
+      <c r="J17" s="17">
         <f t="shared" si="3"/>
-        <v>1320</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="4"/>
-        <v>720</v>
+        <v>792.00000000000023</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L17" s="18">
-        <f t="shared" si="5"/>
-        <v>34014</v>
+        <f t="shared" si="4"/>
+        <v>34209.600000000006</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>43</v>
@@ -6758,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D18" s="14">
@@ -6771,8 +6765,8 @@
         <v>51</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H18" s="20">
         <v>2.2000000000000002</v>
@@ -6787,8 +6781,8 @@
         <v>57</v>
       </c>
       <c r="L18" s="18">
-        <f t="shared" si="5"/>
-        <v>34014</v>
+        <f t="shared" si="4"/>
+        <v>34209.600000000006</v>
       </c>
       <c r="N18" s="46">
         <f>painel!B19</f>
@@ -6797,7 +6791,7 @@
       <c r="O18" s="60"/>
       <c r="P18" s="62">
         <f>N18+SUM(J:J)</f>
-        <v>39251.599999999999</v>
+        <v>39096.199999999997</v>
       </c>
       <c r="Q18" s="48"/>
     </row>
@@ -6810,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D19" s="14">
@@ -6823,8 +6817,8 @@
         <v>51</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H19" s="20">
         <v>2.2000000000000002</v>
@@ -6839,8 +6833,8 @@
         <v>57</v>
       </c>
       <c r="L19" s="18">
-        <f t="shared" si="5"/>
-        <v>34014</v>
+        <f t="shared" si="4"/>
+        <v>34209.600000000006</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="61"/>
@@ -6856,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D20" s="14">
@@ -6869,26 +6863,26 @@
         <v>60</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H20" s="20">
         <v>1.75</v>
       </c>
       <c r="I20" s="17">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
+      <c r="J20" s="17">
         <f t="shared" si="3"/>
-        <v>1050</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="4"/>
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" si="5"/>
-        <v>34464</v>
+        <f t="shared" si="4"/>
+        <v>34614.600000000006</v>
       </c>
       <c r="N20" s="37" t="s">
         <v>45</v>
@@ -6906,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D21" s="14">
@@ -6919,30 +6913,30 @@
         <v>60</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H21" s="20">
         <v>1.65</v>
       </c>
       <c r="I21" s="17">
+        <f t="shared" si="2"/>
+        <v>891</v>
+      </c>
+      <c r="J21" s="17">
         <f t="shared" si="3"/>
-        <v>990</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="4"/>
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="5"/>
-        <v>34854</v>
+        <f t="shared" si="4"/>
+        <v>34965.600000000006</v>
       </c>
       <c r="N21" s="46">
         <f>SUM(P18-N18)</f>
-        <v>9251.5999999999985</v>
+        <v>9096.1999999999971</v>
       </c>
       <c r="O21" s="47"/>
       <c r="P21" s="47"/>
@@ -6957,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D22" s="14">
@@ -6970,26 +6964,26 @@
         <v>60</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H22" s="20">
         <v>1.9</v>
       </c>
       <c r="I22" s="17">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="J22" s="17">
         <f t="shared" si="3"/>
-        <v>1140</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="4"/>
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="5"/>
-        <v>35394</v>
+        <f t="shared" si="4"/>
+        <v>35451.600000000006</v>
       </c>
       <c r="N22" s="49"/>
       <c r="O22" s="50"/>
@@ -7005,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D23" s="14">
@@ -7018,8 +7012,8 @@
         <v>60</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H23" s="20">
         <v>2.02</v>
@@ -7028,15 +7022,15 @@
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="5"/>
-        <v>34794</v>
+        <f t="shared" si="4"/>
+        <v>34911.600000000006</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="53"/>
@@ -7052,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D24" s="14">
@@ -7065,26 +7059,26 @@
         <v>60</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H24" s="20">
         <v>1.85</v>
       </c>
       <c r="I24" s="17">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="J24" s="17">
         <f t="shared" si="3"/>
-        <v>1110</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="4"/>
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="5"/>
-        <v>35304</v>
+        <f t="shared" si="4"/>
+        <v>35370.600000000006</v>
       </c>
       <c r="N24" s="37" t="s">
         <v>38</v>
@@ -7102,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D25" s="14">
@@ -7115,8 +7109,8 @@
         <v>60</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H25" s="20">
         <v>1.9</v>
@@ -7132,8 +7126,8 @@
         <v>76</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="5"/>
-        <v>35255</v>
+        <f t="shared" si="4"/>
+        <v>35321.600000000006</v>
       </c>
       <c r="N25" s="37" t="s">
         <v>42</v>
@@ -7151,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D26" s="14">
@@ -7164,30 +7158,30 @@
         <v>60</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H26" s="20">
         <v>1.92</v>
       </c>
       <c r="I26" s="17">
+        <f t="shared" si="2"/>
+        <v>1036.8</v>
+      </c>
+      <c r="J26" s="17">
         <f t="shared" si="3"/>
-        <v>1152</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="4"/>
-        <v>552</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="5"/>
-        <v>35807</v>
+        <f t="shared" si="4"/>
+        <v>35818.400000000009</v>
       </c>
       <c r="N26" s="40">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>0.30838666666666664</v>
+        <v>0.30320666666666657</v>
       </c>
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
@@ -7202,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D27" s="14">
@@ -7215,26 +7209,26 @@
         <v>60</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H27" s="20">
         <v>1.84</v>
       </c>
       <c r="I27" s="17">
-        <f t="shared" si="3"/>
-        <v>1104</v>
+        <f t="shared" si="2"/>
+        <v>993.6</v>
       </c>
       <c r="J27" s="17">
         <f>IFERROR((I27-G27)/2, 0)</f>
-        <v>252</v>
+        <v>226.8</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="5"/>
-        <v>36059</v>
+        <f t="shared" si="4"/>
+        <v>36045.200000000012</v>
       </c>
       <c r="N27" s="43"/>
       <c r="O27" s="44"/>
@@ -7250,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D28" s="14">
@@ -7263,8 +7257,8 @@
         <v>60</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H28" s="20">
         <v>1.98</v>
@@ -7273,15 +7267,15 @@
         <v>0</v>
       </c>
       <c r="J28" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>35459</v>
+        <f t="shared" si="4"/>
+        <v>35505.200000000012</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
@@ -7297,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D29" s="14">
@@ -7310,8 +7304,8 @@
         <v>60</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H29" s="20">
         <v>1.8</v>
@@ -7320,15 +7314,15 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="5"/>
-        <v>34859</v>
+        <f t="shared" si="4"/>
+        <v>34965.200000000012</v>
       </c>
       <c r="N29" s="33" t="s">
         <v>50</v>
@@ -7346,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D30" s="14">
@@ -7359,26 +7353,26 @@
         <v>60</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H30" s="20">
         <v>1.91</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="3"/>
-        <v>1146</v>
+        <f t="shared" si="2"/>
+        <v>1031.3999999999999</v>
       </c>
       <c r="J30" s="17">
         <f>IFERROR((I30-G30)/2, 0)</f>
-        <v>273</v>
+        <v>245.69999999999993</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="5"/>
-        <v>35132</v>
+        <f t="shared" si="4"/>
+        <v>35210.900000000009</v>
       </c>
       <c r="N30" s="33" t="s">
         <v>46</v>
@@ -7400,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D31" s="14">
@@ -7413,26 +7407,26 @@
         <v>60</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H31" s="20">
         <v>1.8</v>
       </c>
       <c r="I31" s="17">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="J31" s="17">
         <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="4"/>
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" si="5"/>
-        <v>35612</v>
+        <f t="shared" si="4"/>
+        <v>35642.900000000009</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>33</v>
@@ -7455,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D32" s="14">
@@ -7468,26 +7462,26 @@
         <v>60</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H32" s="20">
         <v>1.85</v>
       </c>
       <c r="I32" s="17">
-        <f t="shared" si="3"/>
-        <v>1110</v>
+        <f t="shared" si="2"/>
+        <v>999</v>
       </c>
       <c r="J32" s="17">
         <f>IFERROR((I32-G32)/2, 0)</f>
-        <v>255</v>
+        <v>229.5</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="5"/>
-        <v>35867</v>
+        <f t="shared" si="4"/>
+        <v>35872.400000000009</v>
       </c>
       <c r="N32" s="31" t="s">
         <v>48</v>
@@ -7510,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D33" s="14">
@@ -7523,26 +7517,26 @@
         <v>60</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H33" s="20">
         <v>1.8</v>
       </c>
       <c r="I33" s="17">
-        <f t="shared" si="3"/>
-        <v>1080</v>
+        <f t="shared" si="2"/>
+        <v>972</v>
       </c>
       <c r="J33" s="17">
         <f>IFERROR((I33-G33)/2, 0)</f>
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="5"/>
-        <v>36107</v>
+        <f t="shared" si="4"/>
+        <v>36088.400000000009</v>
       </c>
       <c r="N33" s="31" t="s">
         <v>49</v>
@@ -7565,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D34" s="14">
@@ -7578,15 +7572,15 @@
         <v>60</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H34" s="20">
         <v>2.85</v>
       </c>
       <c r="I34" s="17">
-        <f t="shared" si="3"/>
-        <v>1710</v>
+        <f t="shared" si="2"/>
+        <v>1539</v>
       </c>
       <c r="J34" s="17">
         <v>0</v>
@@ -7595,8 +7589,8 @@
         <v>100</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="5"/>
-        <v>36107</v>
+        <f t="shared" si="4"/>
+        <v>36088.400000000009</v>
       </c>
       <c r="N34" s="31" t="s">
         <v>41</v>
@@ -7619,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D35" s="14">
@@ -7632,8 +7626,8 @@
         <v>60</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H35" s="20">
         <v>1.8</v>
@@ -7648,8 +7642,8 @@
         <v>103</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="5"/>
-        <v>36107</v>
+        <f t="shared" si="4"/>
+        <v>36088.400000000009</v>
       </c>
       <c r="N35" s="31" t="s">
         <v>40</v>
@@ -7672,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D36" s="14">
@@ -7685,15 +7679,15 @@
         <v>60</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H36" s="20">
         <v>1.8</v>
       </c>
       <c r="I36" s="17">
-        <f t="shared" si="3"/>
-        <v>1080</v>
+        <f t="shared" si="2"/>
+        <v>972</v>
       </c>
       <c r="J36" s="17">
         <v>0</v>
@@ -7702,19 +7696,19 @@
         <v>103</v>
       </c>
       <c r="L36" s="27">
-        <f t="shared" si="5"/>
-        <v>36107</v>
+        <f t="shared" si="4"/>
+        <v>36088.400000000009</v>
       </c>
       <c r="N36" s="31" t="s">
         <v>51</v>
       </c>
       <c r="O36" s="35"/>
       <c r="P36" s="25">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q36" s="26">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7726,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D37" s="14">
@@ -7739,7 +7733,7 @@
         <v>41</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="H37" s="20">
@@ -7749,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-540</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -7757,18 +7751,18 @@
       </c>
       <c r="L37" s="18">
         <f>L36+J37</f>
-        <v>35567</v>
+        <v>35548.400000000009</v>
       </c>
       <c r="N37" s="30" t="s">
         <v>60</v>
       </c>
       <c r="O37" s="30"/>
       <c r="P37" s="25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q37" s="26">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7780,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D38" s="14">
@@ -7793,8 +7787,8 @@
         <v>60</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H38" s="20">
         <v>1.89</v>
@@ -7809,8 +7803,8 @@
         <v>103</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="5"/>
-        <v>35567</v>
+        <f t="shared" si="4"/>
+        <v>35548.400000000009</v>
       </c>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
@@ -7826,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D39" s="14">
@@ -7839,7 +7833,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="H39" s="20">
@@ -7849,15 +7843,15 @@
         <v>0</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-840</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L39" s="18">
-        <f t="shared" si="5"/>
-        <v>34727</v>
+        <f t="shared" si="4"/>
+        <v>34708.400000000009</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="58"/>
@@ -7873,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D40" s="14">
@@ -7886,8 +7880,8 @@
         <v>60</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H40" s="20">
         <v>1.9</v>
@@ -7896,15 +7890,15 @@
         <v>0</v>
       </c>
       <c r="J40" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" si="5"/>
-        <v>34127</v>
+        <f t="shared" si="4"/>
+        <v>34168.400000000009</v>
       </c>
       <c r="N40" s="46"/>
       <c r="O40" s="60"/>
@@ -7920,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D41" s="14">
@@ -7933,26 +7927,26 @@
         <v>60</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H41" s="20">
         <v>1.92</v>
       </c>
       <c r="I41" s="17">
+        <f t="shared" si="2"/>
+        <v>1036.8</v>
+      </c>
+      <c r="J41" s="17">
         <f t="shared" si="3"/>
-        <v>1152</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="4"/>
-        <v>552</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L41" s="18">
-        <f t="shared" si="5"/>
-        <v>34679</v>
+        <f t="shared" si="4"/>
+        <v>34665.200000000012</v>
       </c>
       <c r="N41" s="52"/>
       <c r="O41" s="61"/>
@@ -7968,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D42" s="14">
@@ -7981,15 +7975,15 @@
         <v>60</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H42" s="20">
         <v>1.82</v>
       </c>
       <c r="I42" s="17">
-        <f t="shared" si="3"/>
-        <v>1092</v>
+        <f t="shared" si="2"/>
+        <v>982.80000000000007</v>
       </c>
       <c r="J42" s="17">
         <v>0</v>
@@ -7998,8 +7992,8 @@
         <v>85</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" si="5"/>
-        <v>34679</v>
+        <f t="shared" si="4"/>
+        <v>34665.200000000012</v>
       </c>
       <c r="N42" s="37"/>
       <c r="O42" s="38"/>
@@ -8015,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D43" s="14">
@@ -8028,26 +8022,26 @@
         <v>60</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H43" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="I43" s="17">
+        <f t="shared" si="2"/>
+        <v>1242</v>
+      </c>
+      <c r="J43" s="17">
         <f t="shared" si="3"/>
-        <v>1380</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="4"/>
-        <v>780</v>
+        <v>702</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="5"/>
-        <v>35459</v>
+        <f t="shared" si="4"/>
+        <v>35367.200000000012</v>
       </c>
       <c r="N43" s="46"/>
       <c r="O43" s="47"/>
@@ -8063,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D44" s="14">
@@ -8076,15 +8070,15 @@
         <v>60</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H44" s="20">
         <v>1.75</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="3"/>
-        <v>1050</v>
+        <f t="shared" si="2"/>
+        <v>945</v>
       </c>
       <c r="J44" s="17">
         <v>0</v>
@@ -8093,8 +8087,8 @@
         <v>111</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="5"/>
-        <v>35459</v>
+        <f t="shared" si="4"/>
+        <v>35367.200000000012</v>
       </c>
       <c r="N44" s="49"/>
       <c r="O44" s="50"/>
@@ -8110,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D45" s="14">
@@ -8123,8 +8117,8 @@
         <v>60</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H45" s="20">
         <v>1.9</v>
@@ -8133,15 +8127,15 @@
         <v>0</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="5"/>
-        <v>34859</v>
+        <f t="shared" si="4"/>
+        <v>34827.200000000012</v>
       </c>
       <c r="N45" s="52"/>
       <c r="O45" s="53"/>
@@ -8157,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D46" s="14">
@@ -8170,26 +8164,26 @@
         <v>60</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H46" s="20">
         <v>1.96</v>
       </c>
       <c r="I46" s="17">
-        <f t="shared" si="3"/>
-        <v>1176</v>
+        <f t="shared" si="2"/>
+        <v>1058.4000000000001</v>
       </c>
       <c r="J46" s="17">
         <f>IFERROR(I46-G46, 0)</f>
-        <v>576</v>
+        <v>518.40000000000009</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="5"/>
-        <v>35435</v>
+        <f t="shared" si="4"/>
+        <v>35345.600000000013</v>
       </c>
       <c r="N46" s="37"/>
       <c r="O46" s="38"/>
@@ -8205,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D47" s="14">
@@ -8218,26 +8212,26 @@
         <v>60</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H47" s="20">
         <v>1.95</v>
       </c>
       <c r="I47" s="17">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+      <c r="J47" s="17">
         <f t="shared" si="3"/>
-        <v>1170</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="4"/>
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L47" s="18">
-        <f t="shared" si="5"/>
-        <v>36005</v>
+        <f t="shared" si="4"/>
+        <v>35858.600000000013</v>
       </c>
       <c r="N47" s="37"/>
       <c r="O47" s="38"/>
@@ -8253,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D48" s="14">
@@ -8266,8 +8260,8 @@
         <v>60</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H48" s="20">
         <v>1.92</v>
@@ -8282,8 +8276,8 @@
         <v>117</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="5"/>
-        <v>36005</v>
+        <f t="shared" si="4"/>
+        <v>35858.600000000013</v>
       </c>
       <c r="N48" s="40"/>
       <c r="O48" s="41"/>
@@ -8299,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D49" s="14">
@@ -8312,26 +8306,26 @@
         <v>60</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H49" s="20">
         <v>1.87</v>
       </c>
       <c r="I49" s="17">
-        <f t="shared" si="3"/>
-        <v>1122</v>
+        <f t="shared" si="2"/>
+        <v>1009.8000000000001</v>
       </c>
       <c r="J49" s="17">
         <f>IFERROR((I49-G49)/2, 0)</f>
-        <v>261</v>
+        <v>234.90000000000003</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="5"/>
-        <v>36266</v>
+        <f t="shared" si="4"/>
+        <v>36093.500000000015</v>
       </c>
       <c r="N49" s="43"/>
       <c r="O49" s="44"/>
@@ -8347,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D50" s="14">
@@ -8360,7 +8354,7 @@
         <v>41</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="H50" s="20">
@@ -8370,15 +8364,15 @@
         <v>0</v>
       </c>
       <c r="J50" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-540</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="5"/>
-        <v>35726</v>
+        <f t="shared" si="4"/>
+        <v>35553.500000000015</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -8394,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D51" s="14">
@@ -8407,7 +8401,7 @@
         <v>41</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="H51" s="20">
@@ -8417,15 +8411,15 @@
         <v>0</v>
       </c>
       <c r="J51" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-540</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L51" s="18">
-        <f t="shared" si="5"/>
-        <v>35186</v>
+        <f t="shared" si="4"/>
+        <v>35013.500000000015</v>
       </c>
       <c r="N51" s="33"/>
       <c r="O51" s="36"/>
@@ -8441,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D52" s="14">
@@ -8454,26 +8448,26 @@
         <v>41</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="H52" s="20">
         <v>1.99</v>
       </c>
       <c r="I52" s="17">
+        <f t="shared" si="2"/>
+        <v>1074.5999999999999</v>
+      </c>
+      <c r="J52" s="17">
         <f t="shared" si="3"/>
-        <v>1074.5999999999999</v>
-      </c>
-      <c r="J52" s="17">
-        <f t="shared" si="4"/>
         <v>534.59999999999991</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L52" s="18">
-        <f t="shared" si="5"/>
-        <v>35720.6</v>
+        <f t="shared" si="4"/>
+        <v>35548.100000000013</v>
       </c>
       <c r="N52" s="33"/>
       <c r="O52" s="34"/>
@@ -8489,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D53" s="14">
@@ -8502,7 +8496,7 @@
         <v>40</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="H53" s="20">
@@ -8512,15 +8506,15 @@
         <v>0</v>
       </c>
       <c r="J53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-840</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L53" s="18">
-        <f t="shared" si="5"/>
-        <v>34880.6</v>
+        <f t="shared" si="4"/>
+        <v>34708.100000000013</v>
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="32"/>
@@ -8536,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D54" s="14">
@@ -8549,26 +8543,26 @@
         <v>51</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H54" s="20">
         <v>2.23</v>
       </c>
       <c r="I54" s="17">
+        <f t="shared" si="2"/>
+        <v>1471.8</v>
+      </c>
+      <c r="J54" s="17">
         <f t="shared" si="3"/>
-        <v>1338</v>
-      </c>
-      <c r="J54" s="17">
-        <f t="shared" si="4"/>
-        <v>738</v>
+        <v>811.8</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L54" s="18">
-        <f t="shared" si="5"/>
-        <v>35618.6</v>
+        <f t="shared" si="4"/>
+        <v>35519.900000000016</v>
       </c>
       <c r="N54" s="31"/>
       <c r="O54" s="32"/>
@@ -8584,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D55" s="14">
@@ -8597,26 +8591,26 @@
         <v>51</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H55" s="20">
         <v>1.85</v>
       </c>
       <c r="I55" s="17">
+        <f t="shared" si="2"/>
+        <v>1221</v>
+      </c>
+      <c r="J55" s="17">
         <f t="shared" si="3"/>
-        <v>1110</v>
-      </c>
-      <c r="J55" s="17">
-        <f t="shared" si="4"/>
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L55" s="18">
-        <f t="shared" si="5"/>
-        <v>36128.6</v>
+        <f t="shared" si="4"/>
+        <v>36080.900000000016</v>
       </c>
       <c r="N55" s="31"/>
       <c r="O55" s="32"/>
@@ -8632,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D56" s="14">
@@ -8645,26 +8639,26 @@
         <v>51</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H56" s="20">
         <v>1.8</v>
       </c>
       <c r="I56" s="17">
+        <f t="shared" si="2"/>
+        <v>1188</v>
+      </c>
+      <c r="J56" s="17">
         <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="J56" s="17">
-        <f t="shared" si="4"/>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L56" s="18">
-        <f t="shared" si="5"/>
-        <v>36608.6</v>
+        <f t="shared" si="4"/>
+        <v>36608.900000000016</v>
       </c>
       <c r="N56" s="31"/>
       <c r="O56" s="32"/>
@@ -8680,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D57" s="14">
@@ -8693,26 +8687,26 @@
         <v>51</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H57" s="20">
         <v>1.75</v>
       </c>
       <c r="I57" s="17">
+        <f t="shared" si="2"/>
+        <v>1155</v>
+      </c>
+      <c r="J57" s="17">
         <f t="shared" si="3"/>
-        <v>1050</v>
-      </c>
-      <c r="J57" s="17">
-        <f t="shared" si="4"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L57" s="18">
-        <f t="shared" si="5"/>
-        <v>37058.6</v>
+        <f t="shared" si="4"/>
+        <v>37103.900000000016</v>
       </c>
       <c r="N57" s="31"/>
       <c r="O57" s="32"/>
@@ -8728,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D58" s="14">
@@ -8741,8 +8735,8 @@
         <v>51</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H58" s="20">
         <v>1.75</v>
@@ -8754,8 +8748,8 @@
         <v>111</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="5"/>
-        <v>37058.6</v>
+        <f t="shared" si="4"/>
+        <v>37103.900000000016</v>
       </c>
       <c r="N58" s="31"/>
       <c r="O58" s="35"/>
@@ -8771,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D59" s="14">
@@ -8784,26 +8778,26 @@
         <v>60</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H59" s="20">
         <v>2.1</v>
       </c>
       <c r="I59" s="17">
+        <f t="shared" si="2"/>
+        <v>1134</v>
+      </c>
+      <c r="J59" s="17">
         <f t="shared" si="3"/>
-        <v>1260</v>
-      </c>
-      <c r="J59" s="17">
-        <f t="shared" si="4"/>
-        <v>660</v>
+        <v>594</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="18">
-        <f t="shared" si="5"/>
-        <v>37718.6</v>
+        <f t="shared" si="4"/>
+        <v>37697.900000000016</v>
       </c>
       <c r="N59" s="67"/>
       <c r="O59" s="68"/>
@@ -8819,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D60" s="14">
@@ -8832,26 +8826,26 @@
         <v>51</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H60" s="20">
         <v>1.8</v>
       </c>
       <c r="I60" s="17">
+        <f t="shared" si="2"/>
+        <v>1188</v>
+      </c>
+      <c r="J60" s="17">
         <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="J60" s="17">
-        <f t="shared" si="4"/>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" si="5"/>
-        <v>38198.6</v>
+        <f t="shared" si="4"/>
+        <v>38225.900000000016</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8863,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D61" s="14">
@@ -8876,8 +8870,8 @@
         <v>51</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H61" s="20">
         <v>2.48</v>
@@ -8886,15 +8880,15 @@
         <v>0</v>
       </c>
       <c r="J61" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L61" s="18">
-        <f t="shared" si="5"/>
-        <v>37598.6</v>
+        <f t="shared" si="4"/>
+        <v>37565.900000000016</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8906,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D62" s="14">
@@ -8919,26 +8913,26 @@
         <v>60</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H62" s="20">
         <v>3.4</v>
       </c>
       <c r="I62" s="17">
+        <f t="shared" si="2"/>
+        <v>1836</v>
+      </c>
+      <c r="J62" s="17">
         <f t="shared" si="3"/>
-        <v>2040</v>
-      </c>
-      <c r="J62" s="17">
-        <f t="shared" si="4"/>
-        <v>1440</v>
+        <v>1296</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L62" s="18">
-        <f t="shared" si="5"/>
-        <v>39038.6</v>
+        <f t="shared" si="4"/>
+        <v>38861.900000000016</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8950,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D63" s="14">
@@ -8963,26 +8957,26 @@
         <v>51</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H63" s="20">
         <v>1.7</v>
       </c>
       <c r="I63" s="17">
+        <f t="shared" si="2"/>
+        <v>1122</v>
+      </c>
+      <c r="J63" s="17">
         <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-      <c r="J63" s="17">
-        <f t="shared" si="4"/>
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L63" s="18">
-        <f t="shared" si="5"/>
-        <v>39458.6</v>
+        <f t="shared" si="4"/>
+        <v>39323.900000000016</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8994,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D64" s="14">
@@ -9007,8 +9001,8 @@
         <v>51</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H64" s="20">
         <v>2.65</v>
@@ -9017,15 +9011,15 @@
         <v>0</v>
       </c>
       <c r="J64" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L64" s="18">
-        <f t="shared" si="5"/>
-        <v>38858.6</v>
+        <f t="shared" si="4"/>
+        <v>38663.900000000016</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -9037,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D65" s="14">
@@ -9050,8 +9044,8 @@
         <v>51</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H65" s="20">
         <v>2.2999999999999998</v>
@@ -9060,15 +9054,15 @@
         <v>0</v>
       </c>
       <c r="J65" s="17">
-        <f t="shared" si="4"/>
-        <v>-600</v>
+        <f t="shared" si="3"/>
+        <v>-660</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L65" s="18">
-        <f t="shared" si="5"/>
-        <v>38258.6</v>
+        <f t="shared" si="4"/>
+        <v>38003.900000000016</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -9080,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D66" s="14">
@@ -9093,26 +9087,26 @@
         <v>51</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>660</v>
       </c>
       <c r="H66" s="20">
         <v>2.1</v>
       </c>
       <c r="I66" s="17">
+        <f t="shared" si="2"/>
+        <v>1386</v>
+      </c>
+      <c r="J66" s="17">
         <f t="shared" si="3"/>
-        <v>1260</v>
-      </c>
-      <c r="J66" s="17">
-        <f t="shared" si="4"/>
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L66" s="18">
-        <f t="shared" si="5"/>
-        <v>38918.6</v>
+        <f t="shared" si="4"/>
+        <v>38729.900000000016</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -9138,25 +9132,25 @@
       </c>
       <c r="G67" s="17">
         <f t="shared" ref="G67:G98" si="9">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H67" s="20">
         <v>1.7</v>
       </c>
       <c r="I67" s="17">
         <f t="shared" ref="I67:I98" si="10">IFERROR(H67*G67, 0)</f>
-        <v>1020</v>
+        <v>1122</v>
       </c>
       <c r="J67" s="17">
         <f t="shared" ref="J67:J98" si="11">IFERROR(I67-G67, 0)</f>
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L98" si="12">L66+J67</f>
-        <v>39338.6</v>
+        <v>39191.900000000016</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -9182,7 +9176,7 @@
       </c>
       <c r="G68" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H68" s="1">
         <v>1.75</v>
@@ -9198,7 +9192,7 @@
       </c>
       <c r="L68" s="18">
         <f t="shared" si="12"/>
-        <v>39338.6</v>
+        <v>39191.900000000016</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -9224,25 +9218,25 @@
       </c>
       <c r="G69" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H69" s="1">
         <v>2.13</v>
       </c>
       <c r="I69" s="17">
         <f t="shared" si="10"/>
-        <v>1278</v>
+        <v>1405.8</v>
       </c>
       <c r="J69" s="17">
         <f t="shared" si="11"/>
-        <v>678</v>
+        <v>745.8</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L69" s="18">
         <f t="shared" si="12"/>
-        <v>40016.6</v>
+        <v>39937.700000000019</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -9268,7 +9262,7 @@
       </c>
       <c r="G70" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H70" s="1">
         <v>2.1800000000000002</v>
@@ -9278,14 +9272,14 @@
       </c>
       <c r="J70" s="17">
         <f t="shared" si="11"/>
-        <v>-600</v>
+        <v>-660</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L70" s="18">
         <f t="shared" si="12"/>
-        <v>39416.6</v>
+        <v>39277.700000000019</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -9311,7 +9305,7 @@
       </c>
       <c r="G71" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H71" s="1">
         <v>2.48</v>
@@ -9321,14 +9315,14 @@
       </c>
       <c r="J71" s="17">
         <f t="shared" si="11"/>
-        <v>-600</v>
+        <v>-660</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L71" s="18">
         <f t="shared" si="12"/>
-        <v>38816.6</v>
+        <v>38617.700000000019</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -9354,25 +9348,25 @@
       </c>
       <c r="G72" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H72" s="1">
         <v>1.8</v>
       </c>
       <c r="I72" s="17">
         <f t="shared" si="10"/>
-        <v>1080</v>
+        <v>1188</v>
       </c>
       <c r="J72" s="17">
         <f>IFERROR((I72-G72)/2, 0)</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L72" s="18">
         <f t="shared" si="12"/>
-        <v>39056.6</v>
+        <v>38881.700000000019</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -9398,25 +9392,25 @@
       </c>
       <c r="G73" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H73" s="1">
         <v>1.8</v>
       </c>
       <c r="I73" s="17">
         <f t="shared" si="10"/>
-        <v>1080</v>
+        <v>1188</v>
       </c>
       <c r="J73" s="17">
         <f>IFERROR((I73-G73)/2, 0)</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L73" s="18">
         <f t="shared" si="12"/>
-        <v>39296.6</v>
+        <v>39145.700000000019</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -9442,7 +9436,7 @@
       </c>
       <c r="G74" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H74" s="1">
         <v>1.98</v>
@@ -9452,14 +9446,14 @@
       </c>
       <c r="J74" s="17">
         <f t="shared" si="11"/>
-        <v>-600</v>
+        <v>-660</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" si="12"/>
-        <v>38696.6</v>
+        <v>38485.700000000019</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -9485,25 +9479,25 @@
       </c>
       <c r="G75" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H75" s="1">
         <v>1.8</v>
       </c>
       <c r="I75" s="17">
         <f t="shared" si="10"/>
-        <v>1080</v>
+        <v>1188</v>
       </c>
       <c r="J75" s="17">
         <f t="shared" si="11"/>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L75" s="18">
         <f t="shared" si="12"/>
-        <v>39176.6</v>
+        <v>39013.700000000019</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -9529,7 +9523,7 @@
       </c>
       <c r="G76" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H76" s="1">
         <v>3.83</v>
@@ -9545,7 +9539,7 @@
       </c>
       <c r="L76" s="18">
         <f t="shared" si="12"/>
-        <v>39176.6</v>
+        <v>39013.700000000019</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -9571,25 +9565,25 @@
       </c>
       <c r="G77" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H77" s="1">
         <v>2.1</v>
       </c>
       <c r="I77" s="17">
         <f t="shared" si="10"/>
-        <v>1260</v>
+        <v>1386</v>
       </c>
       <c r="J77" s="17">
         <f>IFERROR((I77-G77)/2, 0)</f>
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L77" s="18">
         <f t="shared" si="12"/>
-        <v>39506.6</v>
+        <v>39376.700000000019</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -9615,25 +9609,25 @@
       </c>
       <c r="G78" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H78" s="1">
         <v>1.75</v>
       </c>
       <c r="I78" s="17">
         <f t="shared" si="10"/>
-        <v>1050</v>
+        <v>1155</v>
       </c>
       <c r="J78" s="17">
         <f>IFERROR((I78-G78)/2, 0)</f>
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L78" s="18">
         <f t="shared" si="12"/>
-        <v>39731.599999999999</v>
+        <v>39624.200000000019</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -9659,7 +9653,7 @@
       </c>
       <c r="G79" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H79" s="1">
         <v>1.7</v>
@@ -9669,14 +9663,14 @@
       </c>
       <c r="J79" s="17">
         <f t="shared" si="11"/>
-        <v>-600</v>
+        <v>-660</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L79" s="18">
         <f t="shared" si="12"/>
-        <v>39131.599999999999</v>
+        <v>38964.200000000019</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9702,7 +9696,7 @@
       </c>
       <c r="G80" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H80" s="1">
         <v>1.8</v>
@@ -9712,14 +9706,14 @@
       </c>
       <c r="J80" s="17">
         <f t="shared" si="11"/>
-        <v>-600</v>
+        <v>-660</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L80" s="18">
         <f t="shared" si="12"/>
-        <v>38531.599999999999</v>
+        <v>38304.200000000019</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9745,25 +9739,25 @@
       </c>
       <c r="G81" s="17">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H81" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="I81" s="17">
         <f t="shared" si="10"/>
-        <v>1320</v>
+        <v>1452.0000000000002</v>
       </c>
       <c r="J81" s="17">
         <f t="shared" si="11"/>
-        <v>720</v>
+        <v>792.00000000000023</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L81" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -9792,11 +9786,11 @@
       </c>
       <c r="K82" s="17">
         <f>SUM(J39:J81)</f>
-        <v>3684.6000000000004</v>
+        <v>3547.8</v>
       </c>
       <c r="L82" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9825,11 +9819,11 @@
       </c>
       <c r="K83" s="1">
         <f>K82/L1*100</f>
-        <v>12.282000000000002</v>
+        <v>11.826000000000001</v>
       </c>
       <c r="L83" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9858,11 +9852,11 @@
       </c>
       <c r="K84" s="17">
         <f>SUM(J54:J81)</f>
-        <v>4371</v>
+        <v>4388.1000000000004</v>
       </c>
       <c r="L84" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9891,11 +9885,11 @@
       </c>
       <c r="K85" s="1">
         <f>K84/L1*100</f>
-        <v>14.57</v>
+        <v>14.627000000000001</v>
       </c>
       <c r="L85" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9924,7 +9918,7 @@
       </c>
       <c r="L86" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9953,7 +9947,7 @@
       </c>
       <c r="L87" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9982,7 +9976,7 @@
       </c>
       <c r="L88" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -10011,7 +10005,7 @@
       </c>
       <c r="L89" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -10040,7 +10034,7 @@
       </c>
       <c r="L90" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -10069,7 +10063,7 @@
       </c>
       <c r="L91" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -10098,7 +10092,7 @@
       </c>
       <c r="L92" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -10127,7 +10121,7 @@
       </c>
       <c r="L93" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -10156,7 +10150,7 @@
       </c>
       <c r="L94" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -10185,7 +10179,7 @@
       </c>
       <c r="L95" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -10214,7 +10208,7 @@
       </c>
       <c r="L96" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -10243,7 +10237,7 @@
       </c>
       <c r="L97" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -10272,7 +10266,7 @@
       </c>
       <c r="L98" s="18">
         <f t="shared" si="12"/>
-        <v>39251.599999999999</v>
+        <v>39096.200000000019</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/999.xlsx
+++ b/tecnica_analise/999.xlsx
@@ -958,25 +958,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,24 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,13 +1018,31 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,19 +1063,16 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1485,11 +1485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="304191248"/>
-        <c:axId val="304190856"/>
+        <c:axId val="442713328"/>
+        <c:axId val="442707448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304191248"/>
+        <c:axId val="442713328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1532,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304190856"/>
+        <c:crossAx val="442707448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304190856"/>
+        <c:axId val="442707448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304191248"/>
+        <c:crossAx val="442713328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,11 +1860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251482240"/>
-        <c:axId val="251483416"/>
+        <c:axId val="442708624"/>
+        <c:axId val="442712936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251482240"/>
+        <c:axId val="442708624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1917,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251483416"/>
+        <c:crossAx val="442712936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251483416"/>
+        <c:axId val="442712936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1976,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251482240"/>
+        <c:crossAx val="442708624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2225,11 +2225,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="208209176"/>
-        <c:axId val="333845112"/>
+        <c:axId val="442708232"/>
+        <c:axId val="442706272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208209176"/>
+        <c:axId val="442708232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2272,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333845112"/>
+        <c:crossAx val="442706272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333845112"/>
+        <c:axId val="442706272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208209176"/>
+        <c:crossAx val="442708232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2585,11 +2585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333845504"/>
-        <c:axId val="333843544"/>
+        <c:axId val="442710192"/>
+        <c:axId val="442710584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333845504"/>
+        <c:axId val="442710192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,12 +2642,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333843544"/>
+        <c:crossAx val="442710584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333843544"/>
+        <c:axId val="442710584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2701,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333845504"/>
+        <c:crossAx val="442710192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5973,7 +5973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6684,12 +6686,12 @@
         <f t="shared" si="4"/>
         <v>33417.600000000006</v>
       </c>
-      <c r="N16" s="55" t="s">
+      <c r="N16" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -6734,14 +6736,14 @@
         <f t="shared" si="4"/>
         <v>34209.600000000006</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -6784,16 +6786,16 @@
         <f t="shared" si="4"/>
         <v>34209.600000000006</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <f>painel!B19</f>
         <v>30000</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="62">
+      <c r="O18" s="61"/>
+      <c r="P18" s="63">
         <f>N18+SUM(J:J)</f>
         <v>39096.199999999997</v>
       </c>
-      <c r="Q18" s="48"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -6836,10 +6838,10 @@
         <f t="shared" si="4"/>
         <v>34209.600000000006</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="54"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -6884,12 +6886,12 @@
         <f t="shared" si="4"/>
         <v>34614.600000000006</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -6934,13 +6936,13 @@
         <f t="shared" si="4"/>
         <v>34965.600000000006</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <f>SUM(P18-N18)</f>
         <v>9096.1999999999971</v>
       </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6985,10 +6987,10 @@
         <f t="shared" si="4"/>
         <v>35451.600000000006</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -7032,10 +7034,10 @@
         <f t="shared" si="4"/>
         <v>34911.600000000006</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -7080,12 +7082,12 @@
         <f t="shared" si="4"/>
         <v>35370.600000000006</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -7129,12 +7131,12 @@
         <f t="shared" si="4"/>
         <v>35321.600000000006</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -7179,13 +7181,13 @@
         <f t="shared" si="4"/>
         <v>35818.400000000009</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="50">
         <f>IFERROR(N21/N18, 0)</f>
         <v>0.30320666666666657</v>
       </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -7230,10 +7232,10 @@
         <f t="shared" si="4"/>
         <v>36045.200000000012</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -7324,12 +7326,12 @@
         <f t="shared" si="4"/>
         <v>34965.200000000012</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="35" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -7374,10 +7376,10 @@
         <f t="shared" si="4"/>
         <v>35210.900000000009</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7428,10 +7430,10 @@
         <f t="shared" si="4"/>
         <v>35642.900000000009</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7483,10 +7485,10 @@
         <f t="shared" si="4"/>
         <v>35872.400000000009</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7538,10 +7540,10 @@
         <f t="shared" si="4"/>
         <v>36088.400000000009</v>
       </c>
-      <c r="N33" s="31" t="s">
+      <c r="N33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="32"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7592,10 +7594,10 @@
         <f t="shared" si="4"/>
         <v>36088.400000000009</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7645,10 +7647,10 @@
         <f t="shared" si="4"/>
         <v>36088.400000000009</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="N35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7699,10 +7701,10 @@
         <f t="shared" si="4"/>
         <v>36088.400000000009</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="35"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="25">
         <v>2.2000000000000002</v>
       </c>
@@ -7753,10 +7755,10 @@
         <f>L36+J37</f>
         <v>35548.400000000009</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="68"/>
       <c r="P37" s="25">
         <v>1.8</v>
       </c>
@@ -7806,10 +7808,10 @@
         <f t="shared" si="4"/>
         <v>35548.400000000009</v>
       </c>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -7853,10 +7855,10 @@
         <f t="shared" si="4"/>
         <v>34708.400000000009</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="39"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -7900,10 +7902,10 @@
         <f t="shared" si="4"/>
         <v>34168.400000000009</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="48"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -7948,10 +7950,10 @@
         <f t="shared" si="4"/>
         <v>34665.200000000012</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="54"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -7995,10 +7997,10 @@
         <f t="shared" si="4"/>
         <v>34665.200000000012</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="39"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -8043,10 +8045,10 @@
         <f t="shared" si="4"/>
         <v>35367.200000000012</v>
       </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="48"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -8090,10 +8092,10 @@
         <f t="shared" si="4"/>
         <v>35367.200000000012</v>
       </c>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="51"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -8137,10 +8139,10 @@
         <f t="shared" si="4"/>
         <v>34827.200000000012</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="54"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -8185,10 +8187,10 @@
         <f t="shared" si="4"/>
         <v>35345.600000000013</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -8233,10 +8235,10 @@
         <f t="shared" si="4"/>
         <v>35858.600000000013</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="39"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -8279,10 +8281,10 @@
         <f t="shared" si="4"/>
         <v>35858.600000000013</v>
       </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="42"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -8327,10 +8329,10 @@
         <f t="shared" si="4"/>
         <v>36093.500000000015</v>
       </c>
-      <c r="N49" s="43"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -8421,10 +8423,10 @@
         <f t="shared" si="4"/>
         <v>35013.500000000015</v>
       </c>
-      <c r="N51" s="33"/>
+      <c r="N51" s="35"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="37"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -8469,8 +8471,8 @@
         <f t="shared" si="4"/>
         <v>35548.100000000013</v>
       </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="34"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="37"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -8516,8 +8518,8 @@
         <f t="shared" si="4"/>
         <v>34708.100000000013</v>
       </c>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="31"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -8564,8 +8566,8 @@
         <f t="shared" si="4"/>
         <v>35519.900000000016</v>
       </c>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -8612,8 +8614,8 @@
         <f t="shared" si="4"/>
         <v>36080.900000000016</v>
       </c>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -8660,8 +8662,8 @@
         <f t="shared" si="4"/>
         <v>36608.900000000016</v>
       </c>
-      <c r="N56" s="31"/>
-      <c r="O56" s="32"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -8708,8 +8710,8 @@
         <f t="shared" si="4"/>
         <v>37103.900000000016</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8751,8 +8753,8 @@
         <f t="shared" si="4"/>
         <v>37103.900000000016</v>
       </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="35"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8799,8 +8801,8 @@
         <f t="shared" si="4"/>
         <v>37697.900000000016</v>
       </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="68"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -10271,6 +10273,35 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
@@ -10280,35 +10311,6 @@
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">
